--- a/public/storage/pruebas/files_up/conceptos7.xlsx
+++ b/public/storage/pruebas/files_up/conceptos7.xlsx
@@ -7041,7 +7041,7 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -7082,7 +7082,7 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -7123,7 +7123,7 @@
         <v>21</v>
       </c>
       <c r="H4">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -7164,7 +7164,7 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -7205,7 +7205,7 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -7246,7 +7246,7 @@
         <v>21</v>
       </c>
       <c r="H7">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -7287,7 +7287,7 @@
         <v>21</v>
       </c>
       <c r="H8">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -7328,7 +7328,7 @@
         <v>21</v>
       </c>
       <c r="H9">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -7369,7 +7369,7 @@
         <v>21</v>
       </c>
       <c r="H10">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -7451,7 +7451,7 @@
         <v>21</v>
       </c>
       <c r="H12">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -7492,7 +7492,7 @@
         <v>21</v>
       </c>
       <c r="H13">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>21</v>
       </c>
       <c r="H14">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -7574,7 +7574,7 @@
         <v>21</v>
       </c>
       <c r="H15">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -7615,7 +7615,7 @@
         <v>21</v>
       </c>
       <c r="H16">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -7656,7 +7656,7 @@
         <v>21</v>
       </c>
       <c r="H17">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -7697,7 +7697,7 @@
         <v>21</v>
       </c>
       <c r="H18">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -7738,7 +7738,7 @@
         <v>21</v>
       </c>
       <c r="H19">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -7779,7 +7779,7 @@
         <v>21</v>
       </c>
       <c r="H20">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -7820,7 +7820,7 @@
         <v>21</v>
       </c>
       <c r="H21">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>21</v>
       </c>
       <c r="H22">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>21</v>
       </c>
       <c r="H23">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -7943,7 +7943,7 @@
         <v>21</v>
       </c>
       <c r="H24">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -7984,7 +7984,7 @@
         <v>21</v>
       </c>
       <c r="H25">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -8025,7 +8025,7 @@
         <v>21</v>
       </c>
       <c r="H26">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -8066,7 +8066,7 @@
         <v>21</v>
       </c>
       <c r="H27">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -8107,7 +8107,7 @@
         <v>21</v>
       </c>
       <c r="H28">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -8148,7 +8148,7 @@
         <v>21</v>
       </c>
       <c r="H29">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -8189,7 +8189,7 @@
         <v>21</v>
       </c>
       <c r="H30">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -8230,7 +8230,7 @@
         <v>21</v>
       </c>
       <c r="H31">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -8271,7 +8271,7 @@
         <v>21</v>
       </c>
       <c r="H32">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -8312,7 +8312,7 @@
         <v>21</v>
       </c>
       <c r="H33">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -8353,7 +8353,7 @@
         <v>21</v>
       </c>
       <c r="H34">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -8394,7 +8394,7 @@
         <v>21</v>
       </c>
       <c r="H35">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -8435,7 +8435,7 @@
         <v>21</v>
       </c>
       <c r="H36">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -8476,7 +8476,7 @@
         <v>21</v>
       </c>
       <c r="H37">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -8517,7 +8517,7 @@
         <v>21</v>
       </c>
       <c r="H38">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8558,7 +8558,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -8599,7 +8599,7 @@
         <v>21</v>
       </c>
       <c r="H40">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -8640,7 +8640,7 @@
         <v>21</v>
       </c>
       <c r="H41">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8681,7 +8681,7 @@
         <v>21</v>
       </c>
       <c r="H42">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8722,7 +8722,7 @@
         <v>21</v>
       </c>
       <c r="H43">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8763,7 +8763,7 @@
         <v>21</v>
       </c>
       <c r="H44">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8804,7 +8804,7 @@
         <v>21</v>
       </c>
       <c r="H45">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8845,7 +8845,7 @@
         <v>21</v>
       </c>
       <c r="H46">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8886,7 +8886,7 @@
         <v>21</v>
       </c>
       <c r="H47">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -8927,7 +8927,7 @@
         <v>21</v>
       </c>
       <c r="H48">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -8968,7 +8968,7 @@
         <v>21</v>
       </c>
       <c r="H49">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -9009,7 +9009,7 @@
         <v>21</v>
       </c>
       <c r="H50">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -9050,7 +9050,7 @@
         <v>21</v>
       </c>
       <c r="H51">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -9091,7 +9091,7 @@
         <v>21</v>
       </c>
       <c r="H52">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>21</v>
       </c>
       <c r="H53">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -9173,7 +9173,7 @@
         <v>21</v>
       </c>
       <c r="H54">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -9214,7 +9214,7 @@
         <v>21</v>
       </c>
       <c r="H55">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -9255,7 +9255,7 @@
         <v>21</v>
       </c>
       <c r="H56">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -9296,7 +9296,7 @@
         <v>21</v>
       </c>
       <c r="H57">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -9337,7 +9337,7 @@
         <v>21</v>
       </c>
       <c r="H58">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -9378,7 +9378,7 @@
         <v>21</v>
       </c>
       <c r="H59">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -9419,7 +9419,7 @@
         <v>21</v>
       </c>
       <c r="H60">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -9460,7 +9460,7 @@
         <v>21</v>
       </c>
       <c r="H61">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -9501,7 +9501,7 @@
         <v>21</v>
       </c>
       <c r="H62">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -9542,7 +9542,7 @@
         <v>21</v>
       </c>
       <c r="H63">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -9583,7 +9583,7 @@
         <v>21</v>
       </c>
       <c r="H64">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -9624,7 +9624,7 @@
         <v>21</v>
       </c>
       <c r="H65">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -9665,7 +9665,7 @@
         <v>21</v>
       </c>
       <c r="H66">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -9706,7 +9706,7 @@
         <v>21</v>
       </c>
       <c r="H67">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -9747,7 +9747,7 @@
         <v>21</v>
       </c>
       <c r="H68">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -9788,7 +9788,7 @@
         <v>21</v>
       </c>
       <c r="H69">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -9829,7 +9829,7 @@
         <v>21</v>
       </c>
       <c r="H70">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -9870,7 +9870,7 @@
         <v>21</v>
       </c>
       <c r="H71">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>21</v>
       </c>
       <c r="H72">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -9952,7 +9952,7 @@
         <v>21</v>
       </c>
       <c r="H73">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -9993,7 +9993,7 @@
         <v>21</v>
       </c>
       <c r="H74">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -10034,7 +10034,7 @@
         <v>21</v>
       </c>
       <c r="H75">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>21</v>
       </c>
       <c r="H76">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -10116,7 +10116,7 @@
         <v>21</v>
       </c>
       <c r="H77">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -10157,7 +10157,7 @@
         <v>21</v>
       </c>
       <c r="H78">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -10198,7 +10198,7 @@
         <v>21</v>
       </c>
       <c r="H79">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>21</v>
       </c>
       <c r="H80">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -10280,7 +10280,7 @@
         <v>21</v>
       </c>
       <c r="H81">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>21</v>
       </c>
       <c r="H82">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -10362,7 +10362,7 @@
         <v>21</v>
       </c>
       <c r="H83">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>21</v>
       </c>
       <c r="H84">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -10444,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="H85">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -10485,7 +10485,7 @@
         <v>21</v>
       </c>
       <c r="H86">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>21</v>
       </c>
       <c r="H87">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -10567,7 +10567,7 @@
         <v>21</v>
       </c>
       <c r="H88">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -10608,7 +10608,7 @@
         <v>21</v>
       </c>
       <c r="H89">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -10649,7 +10649,7 @@
         <v>21</v>
       </c>
       <c r="H90">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -10690,7 +10690,7 @@
         <v>21</v>
       </c>
       <c r="H91">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -10731,7 +10731,7 @@
         <v>21</v>
       </c>
       <c r="H92">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -10772,7 +10772,7 @@
         <v>21</v>
       </c>
       <c r="H93">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -10813,7 +10813,7 @@
         <v>21</v>
       </c>
       <c r="H94">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>21</v>
       </c>
       <c r="H95">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -10895,7 +10895,7 @@
         <v>21</v>
       </c>
       <c r="H96">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -10936,7 +10936,7 @@
         <v>21</v>
       </c>
       <c r="H97">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -10977,7 +10977,7 @@
         <v>21</v>
       </c>
       <c r="H98">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -11018,7 +11018,7 @@
         <v>21</v>
       </c>
       <c r="H99">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -11059,7 +11059,7 @@
         <v>21</v>
       </c>
       <c r="H100">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -11100,7 +11100,7 @@
         <v>21</v>
       </c>
       <c r="H101">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -11141,7 +11141,7 @@
         <v>21</v>
       </c>
       <c r="H102">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -11182,7 +11182,7 @@
         <v>21</v>
       </c>
       <c r="H103">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -11223,7 +11223,7 @@
         <v>21</v>
       </c>
       <c r="H104">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -11264,7 +11264,7 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -11305,7 +11305,7 @@
         <v>21</v>
       </c>
       <c r="H106">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -11346,7 +11346,7 @@
         <v>21</v>
       </c>
       <c r="H107">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -11387,7 +11387,7 @@
         <v>21</v>
       </c>
       <c r="H108">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -11428,7 +11428,7 @@
         <v>21</v>
       </c>
       <c r="H109">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -11469,7 +11469,7 @@
         <v>21</v>
       </c>
       <c r="H110">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -11510,7 +11510,7 @@
         <v>21</v>
       </c>
       <c r="H111">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -11551,7 +11551,7 @@
         <v>21</v>
       </c>
       <c r="H112">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -11592,7 +11592,7 @@
         <v>21</v>
       </c>
       <c r="H113">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -11633,7 +11633,7 @@
         <v>21</v>
       </c>
       <c r="H114">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -11674,7 +11674,7 @@
         <v>21</v>
       </c>
       <c r="H115">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -11715,7 +11715,7 @@
         <v>21</v>
       </c>
       <c r="H116">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -11756,7 +11756,7 @@
         <v>21</v>
       </c>
       <c r="H117">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -11797,7 +11797,7 @@
         <v>21</v>
       </c>
       <c r="H118">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -11838,7 +11838,7 @@
         <v>21</v>
       </c>
       <c r="H119">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11879,7 +11879,7 @@
         <v>21</v>
       </c>
       <c r="H120">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11920,7 +11920,7 @@
         <v>21</v>
       </c>
       <c r="H121">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11961,7 +11961,7 @@
         <v>21</v>
       </c>
       <c r="H122">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -12002,7 +12002,7 @@
         <v>21</v>
       </c>
       <c r="H123">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -12043,7 +12043,7 @@
         <v>21</v>
       </c>
       <c r="H124">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>21</v>
       </c>
       <c r="H125">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -12125,7 +12125,7 @@
         <v>21</v>
       </c>
       <c r="H126">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -12166,7 +12166,7 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -12207,7 +12207,7 @@
         <v>21</v>
       </c>
       <c r="H128">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -12245,7 +12245,7 @@
         <v>21</v>
       </c>
       <c r="H129">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -12286,7 +12286,7 @@
         <v>21</v>
       </c>
       <c r="H130">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12324,7 +12324,7 @@
         <v>21</v>
       </c>
       <c r="H131">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12362,7 +12362,7 @@
         <v>21</v>
       </c>
       <c r="H132">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -12400,7 +12400,7 @@
         <v>21</v>
       </c>
       <c r="H133">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -12438,7 +12438,7 @@
         <v>21</v>
       </c>
       <c r="H134">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12476,7 +12476,7 @@
         <v>21</v>
       </c>
       <c r="H135">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12514,7 +12514,7 @@
         <v>21</v>
       </c>
       <c r="H136">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -12552,7 +12552,7 @@
         <v>21</v>
       </c>
       <c r="H137">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -12590,7 +12590,7 @@
         <v>21</v>
       </c>
       <c r="H138">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -12628,7 +12628,7 @@
         <v>10</v>
       </c>
       <c r="H139">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -12666,7 +12666,7 @@
         <v>21</v>
       </c>
       <c r="H140">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -12704,7 +12704,7 @@
         <v>21</v>
       </c>
       <c r="H141">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>4</v>
       </c>
       <c r="H142">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -12780,7 +12780,7 @@
         <v>6</v>
       </c>
       <c r="H143">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -12818,7 +12818,7 @@
         <v>21</v>
       </c>
       <c r="H144">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -12856,7 +12856,7 @@
         <v>21</v>
       </c>
       <c r="H145">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -12894,7 +12894,7 @@
         <v>21</v>
       </c>
       <c r="H146">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -12932,7 +12932,7 @@
         <v>21</v>
       </c>
       <c r="H147">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -12970,7 +12970,7 @@
         <v>21</v>
       </c>
       <c r="H148">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -13008,7 +13008,7 @@
         <v>21</v>
       </c>
       <c r="H149">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -13046,7 +13046,7 @@
         <v>21</v>
       </c>
       <c r="H150">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -13084,7 +13084,7 @@
         <v>21</v>
       </c>
       <c r="H151">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -13122,7 +13122,7 @@
         <v>21</v>
       </c>
       <c r="H152">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -13160,7 +13160,7 @@
         <v>21</v>
       </c>
       <c r="H153">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -13198,7 +13198,7 @@
         <v>21</v>
       </c>
       <c r="H154">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -13236,7 +13236,7 @@
         <v>21</v>
       </c>
       <c r="H155">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -13277,7 +13277,7 @@
         <v>3</v>
       </c>
       <c r="H156">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -13315,7 +13315,7 @@
         <v>10</v>
       </c>
       <c r="H157">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -13356,7 +13356,7 @@
         <v>10</v>
       </c>
       <c r="H158">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -13394,7 +13394,7 @@
         <v>21</v>
       </c>
       <c r="H159">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>21</v>
       </c>
       <c r="H160">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -13470,7 +13470,7 @@
         <v>21</v>
       </c>
       <c r="H161">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -13508,7 +13508,7 @@
         <v>21</v>
       </c>
       <c r="H162">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -13549,7 +13549,7 @@
         <v>21</v>
       </c>
       <c r="H163">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -13587,7 +13587,7 @@
         <v>21</v>
       </c>
       <c r="H164">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -13628,7 +13628,7 @@
         <v>21</v>
       </c>
       <c r="H165">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -13666,7 +13666,7 @@
         <v>21</v>
       </c>
       <c r="H166">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -13704,7 +13704,7 @@
         <v>10</v>
       </c>
       <c r="H167">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -13742,7 +13742,7 @@
         <v>21</v>
       </c>
       <c r="H168">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>21</v>
       </c>
       <c r="H169">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -13818,7 +13818,7 @@
         <v>21</v>
       </c>
       <c r="H170">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -13856,7 +13856,7 @@
         <v>21</v>
       </c>
       <c r="H171">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -13894,7 +13894,7 @@
         <v>21</v>
       </c>
       <c r="H172">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -13932,7 +13932,7 @@
         <v>21</v>
       </c>
       <c r="H173">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -13970,7 +13970,7 @@
         <v>10</v>
       </c>
       <c r="H174">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -14049,7 +14049,7 @@
         <v>21</v>
       </c>
       <c r="H176">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -14090,7 +14090,7 @@
         <v>10</v>
       </c>
       <c r="H177">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -14131,7 +14131,7 @@
         <v>21</v>
       </c>
       <c r="H178">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -14172,7 +14172,7 @@
         <v>21</v>
       </c>
       <c r="H179">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -14213,7 +14213,7 @@
         <v>4</v>
       </c>
       <c r="H180">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -14251,7 +14251,7 @@
         <v>10</v>
       </c>
       <c r="H181">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -14292,7 +14292,7 @@
         <v>21</v>
       </c>
       <c r="H182">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -14330,7 +14330,7 @@
         <v>21</v>
       </c>
       <c r="H183">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -14368,7 +14368,7 @@
         <v>21</v>
       </c>
       <c r="H184">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -14406,7 +14406,7 @@
         <v>21</v>
       </c>
       <c r="H185">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>21</v>
       </c>
       <c r="H186">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -14482,7 +14482,7 @@
         <v>21</v>
       </c>
       <c r="H187">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -14520,7 +14520,7 @@
         <v>21</v>
       </c>
       <c r="H188">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -14558,7 +14558,7 @@
         <v>21</v>
       </c>
       <c r="H189">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -14596,7 +14596,7 @@
         <v>21</v>
       </c>
       <c r="H190">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -14637,7 +14637,7 @@
         <v>21</v>
       </c>
       <c r="H191">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -14678,7 +14678,7 @@
         <v>21</v>
       </c>
       <c r="H192">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -14719,7 +14719,7 @@
         <v>21</v>
       </c>
       <c r="H193">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -14757,7 +14757,7 @@
         <v>21</v>
       </c>
       <c r="H194">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -14795,7 +14795,7 @@
         <v>21</v>
       </c>
       <c r="H195">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -14874,7 +14874,7 @@
         <v>8</v>
       </c>
       <c r="H197">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -14912,7 +14912,7 @@
         <v>4</v>
       </c>
       <c r="H198">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -14950,7 +14950,7 @@
         <v>10</v>
       </c>
       <c r="H199">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -14991,7 +14991,7 @@
         <v>4</v>
       </c>
       <c r="H200">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -15029,7 +15029,7 @@
         <v>21</v>
       </c>
       <c r="H201">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -15067,7 +15067,7 @@
         <v>21</v>
       </c>
       <c r="H202">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -15105,7 +15105,7 @@
         <v>21</v>
       </c>
       <c r="H203">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -15143,7 +15143,7 @@
         <v>21</v>
       </c>
       <c r="H204">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -15181,7 +15181,7 @@
         <v>21</v>
       </c>
       <c r="H205">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -15222,7 +15222,7 @@
         <v>21</v>
       </c>
       <c r="H206">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -15263,7 +15263,7 @@
         <v>21</v>
       </c>
       <c r="H207">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -15304,7 +15304,7 @@
         <v>21</v>
       </c>
       <c r="H208">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -15345,7 +15345,7 @@
         <v>21</v>
       </c>
       <c r="H209">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -15383,7 +15383,7 @@
         <v>21</v>
       </c>
       <c r="H210">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>21</v>
       </c>
       <c r="H211">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -15459,7 +15459,7 @@
         <v>21</v>
       </c>
       <c r="H212">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>21</v>
       </c>
       <c r="H213">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -15535,7 +15535,7 @@
         <v>21</v>
       </c>
       <c r="H214">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -15573,7 +15573,7 @@
         <v>21</v>
       </c>
       <c r="H215">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -15611,7 +15611,7 @@
         <v>21</v>
       </c>
       <c r="H216">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -15649,7 +15649,7 @@
         <v>21</v>
       </c>
       <c r="H217">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -15690,7 +15690,7 @@
         <v>3</v>
       </c>
       <c r="H218">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -15731,7 +15731,7 @@
         <v>10</v>
       </c>
       <c r="H219">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -15772,7 +15772,7 @@
         <v>21</v>
       </c>
       <c r="H220">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -15810,7 +15810,7 @@
         <v>10</v>
       </c>
       <c r="H221">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -15848,7 +15848,7 @@
         <v>21</v>
       </c>
       <c r="H222">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -15924,7 +15924,7 @@
         <v>10</v>
       </c>
       <c r="H224">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -15965,7 +15965,7 @@
         <v>10</v>
       </c>
       <c r="H225">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -16003,7 +16003,7 @@
         <v>21</v>
       </c>
       <c r="H226">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -16041,7 +16041,7 @@
         <v>21</v>
       </c>
       <c r="H227">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -16079,7 +16079,7 @@
         <v>4</v>
       </c>
       <c r="H228">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>21</v>
       </c>
       <c r="H229">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -16158,7 +16158,7 @@
         <v>21</v>
       </c>
       <c r="H230">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -16199,7 +16199,7 @@
         <v>5</v>
       </c>
       <c r="H231">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -16237,7 +16237,7 @@
         <v>10</v>
       </c>
       <c r="H232">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -16275,7 +16275,7 @@
         <v>21</v>
       </c>
       <c r="H233">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -16313,7 +16313,7 @@
         <v>21</v>
       </c>
       <c r="H234">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -16351,7 +16351,7 @@
         <v>21</v>
       </c>
       <c r="H235">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -16392,7 +16392,7 @@
         <v>10</v>
       </c>
       <c r="H236">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -16471,7 +16471,7 @@
         <v>8</v>
       </c>
       <c r="H238">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -16509,7 +16509,7 @@
         <v>21</v>
       </c>
       <c r="H239">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -16550,7 +16550,7 @@
         <v>21</v>
       </c>
       <c r="H240">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -16588,7 +16588,7 @@
         <v>2</v>
       </c>
       <c r="H241">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -16629,7 +16629,7 @@
         <v>2</v>
       </c>
       <c r="H242">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -16667,7 +16667,7 @@
         <v>10</v>
       </c>
       <c r="H243">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -16708,7 +16708,7 @@
         <v>21</v>
       </c>
       <c r="H244">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -16746,7 +16746,7 @@
         <v>21</v>
       </c>
       <c r="H245">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -16787,7 +16787,7 @@
         <v>21</v>
       </c>
       <c r="H246">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -16825,7 +16825,7 @@
         <v>21</v>
       </c>
       <c r="H247">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -16863,7 +16863,7 @@
         <v>21</v>
       </c>
       <c r="H248">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -16901,7 +16901,7 @@
         <v>4</v>
       </c>
       <c r="H249">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>10</v>
       </c>
       <c r="H250">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -16977,7 +16977,7 @@
         <v>21</v>
       </c>
       <c r="H251">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -17015,7 +17015,7 @@
         <v>21</v>
       </c>
       <c r="H252">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -17053,7 +17053,7 @@
         <v>10</v>
       </c>
       <c r="H253">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I253">
         <v>1</v>
@@ -17091,7 +17091,7 @@
         <v>10</v>
       </c>
       <c r="H254">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I254">
         <v>1</v>
@@ -17132,7 +17132,7 @@
         <v>21</v>
       </c>
       <c r="H255">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I255">
         <v>1</v>
@@ -17170,7 +17170,7 @@
         <v>5</v>
       </c>
       <c r="H256">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I256">
         <v>1</v>
@@ -17208,7 +17208,7 @@
         <v>10</v>
       </c>
       <c r="H257">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I257">
         <v>1</v>
@@ -17249,7 +17249,7 @@
         <v>10</v>
       </c>
       <c r="H258">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I258">
         <v>1</v>
@@ -17290,7 +17290,7 @@
         <v>10</v>
       </c>
       <c r="H259">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I259">
         <v>1</v>
@@ -17331,7 +17331,7 @@
         <v>21</v>
       </c>
       <c r="H260">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I260">
         <v>1</v>
@@ -17372,7 +17372,7 @@
         <v>21</v>
       </c>
       <c r="H261">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I261">
         <v>1</v>
@@ -17410,7 +17410,7 @@
         <v>21</v>
       </c>
       <c r="H262">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I262">
         <v>1</v>
@@ -17448,7 +17448,7 @@
         <v>21</v>
       </c>
       <c r="H263">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I263">
         <v>1</v>
@@ -17489,7 +17489,7 @@
         <v>2</v>
       </c>
       <c r="H264">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I264">
         <v>1</v>
@@ -17530,7 +17530,7 @@
         <v>2</v>
       </c>
       <c r="H265">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I265">
         <v>1</v>
@@ -17568,7 +17568,7 @@
         <v>3</v>
       </c>
       <c r="H266">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -17606,7 +17606,7 @@
         <v>21</v>
       </c>
       <c r="H267">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I267">
         <v>1</v>
@@ -17644,7 +17644,7 @@
         <v>21</v>
       </c>
       <c r="H268">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I268">
         <v>1</v>
@@ -17682,7 +17682,7 @@
         <v>21</v>
       </c>
       <c r="H269">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I269">
         <v>1</v>
@@ -17720,7 +17720,7 @@
         <v>4</v>
       </c>
       <c r="H270">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -17758,7 +17758,7 @@
         <v>10</v>
       </c>
       <c r="H271">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -17796,7 +17796,7 @@
         <v>10</v>
       </c>
       <c r="H272">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>10</v>
       </c>
       <c r="H273">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -17872,7 +17872,7 @@
         <v>21</v>
       </c>
       <c r="H274">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I274">
         <v>1</v>
@@ -17910,7 +17910,7 @@
         <v>21</v>
       </c>
       <c r="H275">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I275">
         <v>1</v>
@@ -17951,7 +17951,7 @@
         <v>10</v>
       </c>
       <c r="H276">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I276">
         <v>1</v>
@@ -17989,7 +17989,7 @@
         <v>6</v>
       </c>
       <c r="H277">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I277">
         <v>1</v>
@@ -18027,7 +18027,7 @@
         <v>21</v>
       </c>
       <c r="H278">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -18065,7 +18065,7 @@
         <v>6</v>
       </c>
       <c r="H279">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I279">
         <v>1</v>
@@ -18103,7 +18103,7 @@
         <v>21</v>
       </c>
       <c r="H280">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I280">
         <v>1</v>
@@ -18141,7 +18141,7 @@
         <v>21</v>
       </c>
       <c r="H281">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I281">
         <v>1</v>
@@ -18182,7 +18182,7 @@
         <v>21</v>
       </c>
       <c r="H282">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I282">
         <v>1</v>
@@ -18220,7 +18220,7 @@
         <v>4</v>
       </c>
       <c r="H283">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I283">
         <v>1</v>
@@ -18258,7 +18258,7 @@
         <v>4</v>
       </c>
       <c r="H284">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I284">
         <v>1</v>
@@ -18296,7 +18296,7 @@
         <v>21</v>
       </c>
       <c r="H285">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I285">
         <v>1</v>
@@ -18334,7 +18334,7 @@
         <v>21</v>
       </c>
       <c r="H286">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I286">
         <v>1</v>
@@ -18375,7 +18375,7 @@
         <v>21</v>
       </c>
       <c r="H287">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I287">
         <v>1</v>
@@ -18416,7 +18416,7 @@
         <v>21</v>
       </c>
       <c r="H288">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I288">
         <v>1</v>
@@ -18454,7 +18454,7 @@
         <v>4</v>
       </c>
       <c r="H289">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I289">
         <v>1</v>
@@ -18495,7 +18495,7 @@
         <v>4</v>
       </c>
       <c r="H290">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I290">
         <v>1</v>
@@ -18536,7 +18536,7 @@
         <v>8</v>
       </c>
       <c r="H291">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I291">
         <v>1</v>
@@ -18574,7 +18574,7 @@
         <v>21</v>
       </c>
       <c r="H292">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I292">
         <v>1</v>
@@ -18612,7 +18612,7 @@
         <v>21</v>
       </c>
       <c r="H293">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I293">
         <v>1</v>
@@ -18650,7 +18650,7 @@
         <v>21</v>
       </c>
       <c r="H294">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -18688,7 +18688,7 @@
         <v>10</v>
       </c>
       <c r="H295">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I295">
         <v>1</v>
@@ -18726,7 +18726,7 @@
         <v>21</v>
       </c>
       <c r="H296">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I296">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>21</v>
       </c>
       <c r="H297">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I297">
         <v>1</v>
@@ -18805,7 +18805,7 @@
         <v>21</v>
       </c>
       <c r="H298">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I298">
         <v>1</v>
@@ -18846,7 +18846,7 @@
         <v>21</v>
       </c>
       <c r="H299">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I299">
         <v>1</v>
@@ -18884,7 +18884,7 @@
         <v>21</v>
       </c>
       <c r="H300">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I300">
         <v>1</v>
@@ -18922,7 +18922,7 @@
         <v>21</v>
       </c>
       <c r="H301">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -18960,7 +18960,7 @@
         <v>21</v>
       </c>
       <c r="H302">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I302">
         <v>1</v>
@@ -19001,7 +19001,7 @@
         <v>21</v>
       </c>
       <c r="H303">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I303">
         <v>1</v>
@@ -19042,7 +19042,7 @@
         <v>21</v>
       </c>
       <c r="H304">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I304">
         <v>1</v>
@@ -19083,7 +19083,7 @@
         <v>21</v>
       </c>
       <c r="H305">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I305">
         <v>1</v>
@@ -19121,7 +19121,7 @@
         <v>21</v>
       </c>
       <c r="H306">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I306">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>21</v>
       </c>
       <c r="H307">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I307">
         <v>1</v>
@@ -19200,7 +19200,7 @@
         <v>21</v>
       </c>
       <c r="H308">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I308">
         <v>1</v>
@@ -19241,7 +19241,7 @@
         <v>21</v>
       </c>
       <c r="H309">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I309">
         <v>1</v>
@@ -19282,7 +19282,7 @@
         <v>21</v>
       </c>
       <c r="H310">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I310">
         <v>1</v>
@@ -19323,7 +19323,7 @@
         <v>4</v>
       </c>
       <c r="H311">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I311">
         <v>1</v>
@@ -19361,7 +19361,7 @@
         <v>10</v>
       </c>
       <c r="H312">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I312">
         <v>1</v>
@@ -19402,7 +19402,7 @@
         <v>21</v>
       </c>
       <c r="H313">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I313">
         <v>1</v>
@@ -19443,7 +19443,7 @@
         <v>21</v>
       </c>
       <c r="H314">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I314">
         <v>1</v>
@@ -19481,7 +19481,7 @@
         <v>21</v>
       </c>
       <c r="H315">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I315">
         <v>1</v>
@@ -19522,7 +19522,7 @@
         <v>21</v>
       </c>
       <c r="H316">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I316">
         <v>1</v>
@@ -19563,7 +19563,7 @@
         <v>21</v>
       </c>
       <c r="H317">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I317">
         <v>1</v>
@@ -19604,7 +19604,7 @@
         <v>21</v>
       </c>
       <c r="H318">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I318">
         <v>1</v>
@@ -19645,7 +19645,7 @@
         <v>10</v>
       </c>
       <c r="H319">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I319">
         <v>1</v>
@@ -19686,7 +19686,7 @@
         <v>21</v>
       </c>
       <c r="H320">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I320">
         <v>1</v>
@@ -19727,7 +19727,7 @@
         <v>21</v>
       </c>
       <c r="H321">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I321">
         <v>1</v>
@@ -19768,7 +19768,7 @@
         <v>21</v>
       </c>
       <c r="H322">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -19809,7 +19809,7 @@
         <v>21</v>
       </c>
       <c r="H323">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -19850,7 +19850,7 @@
         <v>21</v>
       </c>
       <c r="H324">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I324">
         <v>1</v>
@@ -19888,7 +19888,7 @@
         <v>21</v>
       </c>
       <c r="H325">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I325">
         <v>1</v>
@@ -19929,7 +19929,7 @@
         <v>21</v>
       </c>
       <c r="H326">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -19967,7 +19967,7 @@
         <v>21</v>
       </c>
       <c r="H327">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I327">
         <v>1</v>
@@ -20008,7 +20008,7 @@
         <v>21</v>
       </c>
       <c r="H328">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I328">
         <v>1</v>
@@ -20046,7 +20046,7 @@
         <v>21</v>
       </c>
       <c r="H329">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -20084,7 +20084,7 @@
         <v>21</v>
       </c>
       <c r="H330">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I330">
         <v>1</v>
@@ -20122,7 +20122,7 @@
         <v>10</v>
       </c>
       <c r="H331">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I331">
         <v>1</v>
@@ -20160,7 +20160,7 @@
         <v>21</v>
       </c>
       <c r="H332">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -20201,7 +20201,7 @@
         <v>21</v>
       </c>
       <c r="H333">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I333">
         <v>1</v>
@@ -20242,7 +20242,7 @@
         <v>21</v>
       </c>
       <c r="H334">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I334">
         <v>1</v>
@@ -20283,7 +20283,7 @@
         <v>4</v>
       </c>
       <c r="H335">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I335">
         <v>1</v>
@@ -20324,7 +20324,7 @@
         <v>2</v>
       </c>
       <c r="H336">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I336">
         <v>1</v>
@@ -20365,7 +20365,7 @@
         <v>2</v>
       </c>
       <c r="H337">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I337">
         <v>1</v>
@@ -20406,7 +20406,7 @@
         <v>2</v>
       </c>
       <c r="H338">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I338">
         <v>1</v>
@@ -20447,7 +20447,7 @@
         <v>2</v>
       </c>
       <c r="H339">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I339">
         <v>1</v>
@@ -20488,7 +20488,7 @@
         <v>21</v>
       </c>
       <c r="H340">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I340">
         <v>1</v>
@@ -20526,7 +20526,7 @@
         <v>21</v>
       </c>
       <c r="H341">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I341">
         <v>1</v>
@@ -20564,7 +20564,7 @@
         <v>21</v>
       </c>
       <c r="H342">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I342">
         <v>1</v>
@@ -20605,7 +20605,7 @@
         <v>21</v>
       </c>
       <c r="H343">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I343">
         <v>1</v>
@@ -20643,7 +20643,7 @@
         <v>21</v>
       </c>
       <c r="H344">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I344">
         <v>1</v>
@@ -20684,7 +20684,7 @@
         <v>21</v>
       </c>
       <c r="H345">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I345">
         <v>1</v>
@@ -20725,7 +20725,7 @@
         <v>21</v>
       </c>
       <c r="H346">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I346">
         <v>1</v>
@@ -20766,7 +20766,7 @@
         <v>10</v>
       </c>
       <c r="H347">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I347">
         <v>1</v>
@@ -20804,7 +20804,7 @@
         <v>21</v>
       </c>
       <c r="H348">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I348">
         <v>1</v>
@@ -20842,7 +20842,7 @@
         <v>21</v>
       </c>
       <c r="H349">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I349">
         <v>1</v>
@@ -20883,7 +20883,7 @@
         <v>21</v>
       </c>
       <c r="H350">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I350">
         <v>1</v>
@@ -20921,7 +20921,7 @@
         <v>21</v>
       </c>
       <c r="H351">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I351">
         <v>1</v>
@@ -20962,7 +20962,7 @@
         <v>21</v>
       </c>
       <c r="H352">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I352">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>21</v>
       </c>
       <c r="H353">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I353">
         <v>1</v>
@@ -21041,7 +21041,7 @@
         <v>21</v>
       </c>
       <c r="H354">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I354">
         <v>1</v>
@@ -21079,7 +21079,7 @@
         <v>21</v>
       </c>
       <c r="H355">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I355">
         <v>1</v>
@@ -21117,7 +21117,7 @@
         <v>21</v>
       </c>
       <c r="H356">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I356">
         <v>1</v>
@@ -21155,7 +21155,7 @@
         <v>4</v>
       </c>
       <c r="H357">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I357">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>10</v>
       </c>
       <c r="H358">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I358">
         <v>1</v>
@@ -21231,7 +21231,7 @@
         <v>21</v>
       </c>
       <c r="H359">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I359">
         <v>1</v>
@@ -21269,7 +21269,7 @@
         <v>10</v>
       </c>
       <c r="H360">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I360">
         <v>1</v>
@@ -21307,7 +21307,7 @@
         <v>6</v>
       </c>
       <c r="H361">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I361">
         <v>1</v>
@@ -21345,7 +21345,7 @@
         <v>21</v>
       </c>
       <c r="H362">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I362">
         <v>1</v>
@@ -21386,7 +21386,7 @@
         <v>21</v>
       </c>
       <c r="H363">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I363">
         <v>1</v>
@@ -21424,7 +21424,7 @@
         <v>21</v>
       </c>
       <c r="H364">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -21462,7 +21462,7 @@
         <v>21</v>
       </c>
       <c r="H365">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I365">
         <v>1</v>
@@ -21500,7 +21500,7 @@
         <v>21</v>
       </c>
       <c r="H366">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I366">
         <v>1</v>
@@ -21538,7 +21538,7 @@
         <v>21</v>
       </c>
       <c r="H367">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -21576,7 +21576,7 @@
         <v>21</v>
       </c>
       <c r="H368">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -21617,7 +21617,7 @@
         <v>21</v>
       </c>
       <c r="H369">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I369">
         <v>1</v>
@@ -21655,7 +21655,7 @@
         <v>21</v>
       </c>
       <c r="H370">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I370">
         <v>1</v>
@@ -21693,7 +21693,7 @@
         <v>21</v>
       </c>
       <c r="H371">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I371">
         <v>1</v>
@@ -21731,7 +21731,7 @@
         <v>21</v>
       </c>
       <c r="H372">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I372">
         <v>1</v>
@@ -21769,7 +21769,7 @@
         <v>10</v>
       </c>
       <c r="H373">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I373">
         <v>1</v>
@@ -21810,7 +21810,7 @@
         <v>2</v>
       </c>
       <c r="H374">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I374">
         <v>1</v>
@@ -21848,7 +21848,7 @@
         <v>21</v>
       </c>
       <c r="H375">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I375">
         <v>1</v>
@@ -21889,7 +21889,7 @@
         <v>21</v>
       </c>
       <c r="H376">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -21930,7 +21930,7 @@
         <v>21</v>
       </c>
       <c r="H377">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I377">
         <v>1</v>
@@ -21968,7 +21968,7 @@
         <v>2</v>
       </c>
       <c r="H378">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I378">
         <v>1</v>
@@ -22009,7 +22009,7 @@
         <v>21</v>
       </c>
       <c r="H379">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -22047,7 +22047,7 @@
         <v>21</v>
       </c>
       <c r="H380">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I380">
         <v>1</v>
@@ -22085,7 +22085,7 @@
         <v>21</v>
       </c>
       <c r="H381">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I381">
         <v>1</v>
@@ -22123,7 +22123,7 @@
         <v>10</v>
       </c>
       <c r="H382">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I382">
         <v>1</v>
@@ -22164,7 +22164,7 @@
         <v>21</v>
       </c>
       <c r="H383">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I383">
         <v>1</v>
@@ -22205,7 +22205,7 @@
         <v>21</v>
       </c>
       <c r="H384">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I384">
         <v>1</v>
@@ -22246,7 +22246,7 @@
         <v>21</v>
       </c>
       <c r="H385">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I385">
         <v>1</v>
@@ -22287,7 +22287,7 @@
         <v>21</v>
       </c>
       <c r="H386">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I386">
         <v>1</v>
@@ -22325,7 +22325,7 @@
         <v>21</v>
       </c>
       <c r="H387">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I387">
         <v>1</v>
@@ -22363,7 +22363,7 @@
         <v>21</v>
       </c>
       <c r="H388">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I388">
         <v>1</v>
@@ -22401,7 +22401,7 @@
         <v>21</v>
       </c>
       <c r="H389">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I389">
         <v>1</v>
@@ -22439,7 +22439,7 @@
         <v>21</v>
       </c>
       <c r="H390">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I390">
         <v>1</v>
@@ -22477,7 +22477,7 @@
         <v>21</v>
       </c>
       <c r="H391">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I391">
         <v>1</v>
@@ -22515,7 +22515,7 @@
         <v>21</v>
       </c>
       <c r="H392">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I392">
         <v>1</v>
@@ -22553,7 +22553,7 @@
         <v>21</v>
       </c>
       <c r="H393">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I393">
         <v>1</v>
@@ -22594,7 +22594,7 @@
         <v>21</v>
       </c>
       <c r="H394">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I394">
         <v>1</v>
@@ -22635,7 +22635,7 @@
         <v>3</v>
       </c>
       <c r="H395">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I395">
         <v>1</v>
@@ -22673,7 +22673,7 @@
         <v>21</v>
       </c>
       <c r="H396">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I396">
         <v>1</v>
@@ -22714,7 +22714,7 @@
         <v>21</v>
       </c>
       <c r="H397">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I397">
         <v>1</v>
@@ -22752,7 +22752,7 @@
         <v>21</v>
       </c>
       <c r="H398">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I398">
         <v>1</v>
@@ -22790,7 +22790,7 @@
         <v>21</v>
       </c>
       <c r="H399">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I399">
         <v>1</v>
@@ -22831,7 +22831,7 @@
         <v>21</v>
       </c>
       <c r="H400">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I400">
         <v>1</v>
@@ -22869,7 +22869,7 @@
         <v>21</v>
       </c>
       <c r="H401">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I401">
         <v>1</v>
@@ -22907,7 +22907,7 @@
         <v>21</v>
       </c>
       <c r="H402">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I402">
         <v>1</v>
@@ -22948,7 +22948,7 @@
         <v>21</v>
       </c>
       <c r="H403">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I403">
         <v>1</v>
@@ -22986,7 +22986,7 @@
         <v>21</v>
       </c>
       <c r="H404">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I404">
         <v>1</v>
@@ -23024,7 +23024,7 @@
         <v>21</v>
       </c>
       <c r="H405">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I405">
         <v>1</v>
@@ -23062,7 +23062,7 @@
         <v>21</v>
       </c>
       <c r="H406">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I406">
         <v>1</v>
@@ -23100,7 +23100,7 @@
         <v>21</v>
       </c>
       <c r="H407">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I407">
         <v>1</v>
@@ -23138,7 +23138,7 @@
         <v>21</v>
       </c>
       <c r="H408">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I408">
         <v>1</v>
@@ -23179,7 +23179,7 @@
         <v>21</v>
       </c>
       <c r="H409">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I409">
         <v>1</v>
@@ -23220,7 +23220,7 @@
         <v>21</v>
       </c>
       <c r="H410">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I410">
         <v>1</v>
@@ -23258,7 +23258,7 @@
         <v>21</v>
       </c>
       <c r="H411">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I411">
         <v>1</v>
@@ -23299,7 +23299,7 @@
         <v>21</v>
       </c>
       <c r="H412">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I412">
         <v>1</v>
@@ -23340,7 +23340,7 @@
         <v>21</v>
       </c>
       <c r="H413">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I413">
         <v>1</v>
@@ -23381,7 +23381,7 @@
         <v>21</v>
       </c>
       <c r="H414">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I414">
         <v>1</v>
@@ -23419,7 +23419,7 @@
         <v>21</v>
       </c>
       <c r="H415">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I415">
         <v>1</v>
@@ -23460,7 +23460,7 @@
         <v>21</v>
       </c>
       <c r="H416">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I416">
         <v>1</v>
@@ -23501,7 +23501,7 @@
         <v>21</v>
       </c>
       <c r="H417">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I417">
         <v>1</v>
@@ -23542,7 +23542,7 @@
         <v>21</v>
       </c>
       <c r="H418">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I418">
         <v>1</v>
@@ -23580,7 +23580,7 @@
         <v>21</v>
       </c>
       <c r="H419">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I419">
         <v>1</v>
@@ -23621,7 +23621,7 @@
         <v>21</v>
       </c>
       <c r="H420">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I420">
         <v>1</v>
@@ -23662,7 +23662,7 @@
         <v>21</v>
       </c>
       <c r="H421">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I421">
         <v>1</v>
@@ -23703,7 +23703,7 @@
         <v>21</v>
       </c>
       <c r="H422">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I422">
         <v>1</v>
@@ -23744,7 +23744,7 @@
         <v>21</v>
       </c>
       <c r="H423">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I423">
         <v>1</v>
@@ -23785,7 +23785,7 @@
         <v>21</v>
       </c>
       <c r="H424">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I424">
         <v>1</v>
@@ -23823,7 +23823,7 @@
         <v>21</v>
       </c>
       <c r="H425">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I425">
         <v>1</v>
@@ -23861,7 +23861,7 @@
         <v>21</v>
       </c>
       <c r="H426">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I426">
         <v>1</v>
@@ -23899,7 +23899,7 @@
         <v>21</v>
       </c>
       <c r="H427">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I427">
         <v>1</v>
@@ -23940,7 +23940,7 @@
         <v>4</v>
       </c>
       <c r="H428">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I428">
         <v>1</v>
@@ -23978,7 +23978,7 @@
         <v>21</v>
       </c>
       <c r="H429">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I429">
         <v>1</v>
@@ -24019,7 +24019,7 @@
         <v>5</v>
       </c>
       <c r="H430">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I430">
         <v>1</v>
@@ -24060,7 +24060,7 @@
         <v>21</v>
       </c>
       <c r="H431">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I431">
         <v>1</v>
@@ -24101,7 +24101,7 @@
         <v>21</v>
       </c>
       <c r="H432">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I432">
         <v>1</v>
@@ -24139,7 +24139,7 @@
         <v>10</v>
       </c>
       <c r="H433">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I433">
         <v>1</v>
@@ -24180,7 +24180,7 @@
         <v>21</v>
       </c>
       <c r="H434">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I434">
         <v>1</v>
@@ -24221,7 +24221,7 @@
         <v>21</v>
       </c>
       <c r="H435">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I435">
         <v>1</v>
@@ -24259,7 +24259,7 @@
         <v>21</v>
       </c>
       <c r="H436">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I436">
         <v>1</v>
@@ -24300,7 +24300,7 @@
         <v>21</v>
       </c>
       <c r="H437">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I437">
         <v>1</v>
@@ -24341,7 +24341,7 @@
         <v>21</v>
       </c>
       <c r="H438">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I438">
         <v>1</v>
@@ -24379,7 +24379,7 @@
         <v>21</v>
       </c>
       <c r="H439">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I439">
         <v>1</v>
@@ -24417,7 +24417,7 @@
         <v>21</v>
       </c>
       <c r="H440">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I440">
         <v>1</v>
@@ -24458,7 +24458,7 @@
         <v>21</v>
       </c>
       <c r="H441">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I441">
         <v>1</v>
@@ -24499,7 +24499,7 @@
         <v>21</v>
       </c>
       <c r="H442">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I442">
         <v>1</v>
@@ -24540,7 +24540,7 @@
         <v>21</v>
       </c>
       <c r="H443">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I443">
         <v>1</v>
@@ -24581,7 +24581,7 @@
         <v>21</v>
       </c>
       <c r="H444">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I444">
         <v>1</v>
@@ -24622,7 +24622,7 @@
         <v>21</v>
       </c>
       <c r="H445">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I445">
         <v>1</v>
@@ -24663,7 +24663,7 @@
         <v>21</v>
       </c>
       <c r="H446">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I446">
         <v>1</v>
@@ -24701,7 +24701,7 @@
         <v>21</v>
       </c>
       <c r="H447">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I447">
         <v>1</v>
@@ -24739,7 +24739,7 @@
         <v>21</v>
       </c>
       <c r="H448">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -24780,7 +24780,7 @@
         <v>21</v>
       </c>
       <c r="H449">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I449">
         <v>1</v>
@@ -24821,7 +24821,7 @@
         <v>21</v>
       </c>
       <c r="H450">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I450">
         <v>1</v>
@@ -24862,7 +24862,7 @@
         <v>21</v>
       </c>
       <c r="H451">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I451">
         <v>1</v>
@@ -24900,7 +24900,7 @@
         <v>21</v>
       </c>
       <c r="H452">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I452">
         <v>1</v>
@@ -24938,7 +24938,7 @@
         <v>21</v>
       </c>
       <c r="H453">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I453">
         <v>1</v>
@@ -24976,7 +24976,7 @@
         <v>21</v>
       </c>
       <c r="H454">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I454">
         <v>1</v>
@@ -25014,7 +25014,7 @@
         <v>21</v>
       </c>
       <c r="H455">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I455">
         <v>1</v>
@@ -25052,7 +25052,7 @@
         <v>21</v>
       </c>
       <c r="H456">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I456">
         <v>1</v>
@@ -25090,7 +25090,7 @@
         <v>21</v>
       </c>
       <c r="H457">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I457">
         <v>1</v>
@@ -25128,7 +25128,7 @@
         <v>21</v>
       </c>
       <c r="H458">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I458">
         <v>1</v>
@@ -25166,7 +25166,7 @@
         <v>21</v>
       </c>
       <c r="H459">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I459">
         <v>1</v>
@@ -25207,7 +25207,7 @@
         <v>21</v>
       </c>
       <c r="H460">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I460">
         <v>1</v>
@@ -25245,7 +25245,7 @@
         <v>21</v>
       </c>
       <c r="H461">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I461">
         <v>1</v>
@@ -25286,7 +25286,7 @@
         <v>21</v>
       </c>
       <c r="H462">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I462">
         <v>1</v>
@@ -25327,7 +25327,7 @@
         <v>10</v>
       </c>
       <c r="H463">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I463">
         <v>1</v>
@@ -25365,7 +25365,7 @@
         <v>4</v>
       </c>
       <c r="H464">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I464">
         <v>1</v>
@@ -25403,7 +25403,7 @@
         <v>6</v>
       </c>
       <c r="H465">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I465">
         <v>1</v>
@@ -25441,7 +25441,7 @@
         <v>10</v>
       </c>
       <c r="H466">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I466">
         <v>1</v>
@@ -25479,7 +25479,7 @@
         <v>8</v>
       </c>
       <c r="H467">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I467">
         <v>1</v>
@@ -25517,7 +25517,7 @@
         <v>21</v>
       </c>
       <c r="H468">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I468">
         <v>1</v>
@@ -25558,7 +25558,7 @@
         <v>21</v>
       </c>
       <c r="H469">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I469">
         <v>1</v>
@@ -25596,7 +25596,7 @@
         <v>21</v>
       </c>
       <c r="H470">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I470">
         <v>1</v>
@@ -25634,7 +25634,7 @@
         <v>21</v>
       </c>
       <c r="H471">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I471">
         <v>1</v>
@@ -25675,7 +25675,7 @@
         <v>21</v>
       </c>
       <c r="H472">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I472">
         <v>1</v>
@@ -25716,7 +25716,7 @@
         <v>21</v>
       </c>
       <c r="H473">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I473">
         <v>1</v>
@@ -25754,7 +25754,7 @@
         <v>21</v>
       </c>
       <c r="H474">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I474">
         <v>1</v>
@@ -25795,7 +25795,7 @@
         <v>21</v>
       </c>
       <c r="H475">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I475">
         <v>1</v>
@@ -25833,7 +25833,7 @@
         <v>21</v>
       </c>
       <c r="H476">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I476">
         <v>1</v>
@@ -25874,7 +25874,7 @@
         <v>21</v>
       </c>
       <c r="H477">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I477">
         <v>1</v>
@@ -25915,7 +25915,7 @@
         <v>21</v>
       </c>
       <c r="H478">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I478">
         <v>1</v>
@@ -25956,7 +25956,7 @@
         <v>21</v>
       </c>
       <c r="H479">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I479">
         <v>1</v>
@@ -25994,7 +25994,7 @@
         <v>21</v>
       </c>
       <c r="H480">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I480">
         <v>1</v>
@@ -26073,7 +26073,7 @@
         <v>4</v>
       </c>
       <c r="H482">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I482">
         <v>1</v>
@@ -26114,7 +26114,7 @@
         <v>8</v>
       </c>
       <c r="H483">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I483">
         <v>1</v>
@@ -26152,7 +26152,7 @@
         <v>21</v>
       </c>
       <c r="H484">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I484">
         <v>1</v>
@@ -26193,7 +26193,7 @@
         <v>21</v>
       </c>
       <c r="H485">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I485">
         <v>1</v>
@@ -26234,7 +26234,7 @@
         <v>21</v>
       </c>
       <c r="H486">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I486">
         <v>1</v>
@@ -26272,7 +26272,7 @@
         <v>21</v>
       </c>
       <c r="H487">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I487">
         <v>1</v>
@@ -26348,7 +26348,7 @@
         <v>21</v>
       </c>
       <c r="H489">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I489">
         <v>1</v>
@@ -26386,7 +26386,7 @@
         <v>21</v>
       </c>
       <c r="H490">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -26427,7 +26427,7 @@
         <v>21</v>
       </c>
       <c r="H491">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -26465,7 +26465,7 @@
         <v>21</v>
       </c>
       <c r="H492">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I492">
         <v>1</v>
@@ -26503,7 +26503,7 @@
         <v>4</v>
       </c>
       <c r="H493">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I493">
         <v>1</v>
@@ -26541,7 +26541,7 @@
         <v>21</v>
       </c>
       <c r="H494">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I494">
         <v>1</v>
@@ -26579,7 +26579,7 @@
         <v>10</v>
       </c>
       <c r="H495">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I495">
         <v>1</v>
@@ -26617,7 +26617,7 @@
         <v>21</v>
       </c>
       <c r="H496">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I496">
         <v>1</v>
@@ -26655,7 +26655,7 @@
         <v>21</v>
       </c>
       <c r="H497">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I497">
         <v>1</v>
@@ -26696,7 +26696,7 @@
         <v>3</v>
       </c>
       <c r="H498">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -26734,7 +26734,7 @@
         <v>21</v>
       </c>
       <c r="H499">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I499">
         <v>1</v>
@@ -26772,7 +26772,7 @@
         <v>21</v>
       </c>
       <c r="H500">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I500">
         <v>1</v>
@@ -26813,7 +26813,7 @@
         <v>10</v>
       </c>
       <c r="H501">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I501">
         <v>1</v>
@@ -26851,7 +26851,7 @@
         <v>21</v>
       </c>
       <c r="H502">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I502">
         <v>1</v>
@@ -26892,7 +26892,7 @@
         <v>10</v>
       </c>
       <c r="H503">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I503">
         <v>1</v>
@@ -26933,7 +26933,7 @@
         <v>10</v>
       </c>
       <c r="H504">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I504">
         <v>1</v>
@@ -26974,7 +26974,7 @@
         <v>10</v>
       </c>
       <c r="H505">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I505">
         <v>1</v>
@@ -27015,7 +27015,7 @@
         <v>10</v>
       </c>
       <c r="H506">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -27056,7 +27056,7 @@
         <v>10</v>
       </c>
       <c r="H507">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I507">
         <v>1</v>
@@ -27097,7 +27097,7 @@
         <v>4</v>
       </c>
       <c r="H508">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I508">
         <v>1</v>
@@ -27135,7 +27135,7 @@
         <v>4</v>
       </c>
       <c r="H509">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I509">
         <v>1</v>
@@ -27176,7 +27176,7 @@
         <v>4</v>
       </c>
       <c r="H510">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I510">
         <v>1</v>
@@ -27255,7 +27255,7 @@
         <v>21</v>
       </c>
       <c r="H512">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -27293,7 +27293,7 @@
         <v>21</v>
       </c>
       <c r="H513">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I513">
         <v>1</v>
@@ -27334,7 +27334,7 @@
         <v>10</v>
       </c>
       <c r="H514">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I514">
         <v>1</v>
@@ -27375,7 +27375,7 @@
         <v>21</v>
       </c>
       <c r="H515">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I515">
         <v>1</v>
@@ -27413,7 +27413,7 @@
         <v>3</v>
       </c>
       <c r="H516">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I516">
         <v>1</v>
@@ -27492,7 +27492,7 @@
         <v>10</v>
       </c>
       <c r="H518">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -27530,7 +27530,7 @@
         <v>4</v>
       </c>
       <c r="H519">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I519">
         <v>1</v>
@@ -27568,7 +27568,7 @@
         <v>4</v>
       </c>
       <c r="H520">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -27606,7 +27606,7 @@
         <v>4</v>
       </c>
       <c r="H521">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I521">
         <v>1</v>
@@ -27647,7 +27647,7 @@
         <v>8</v>
       </c>
       <c r="H522">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I522">
         <v>1</v>
@@ -27685,7 +27685,7 @@
         <v>21</v>
       </c>
       <c r="H523">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I523">
         <v>1</v>
@@ -27723,7 +27723,7 @@
         <v>21</v>
       </c>
       <c r="H524">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I524">
         <v>1</v>
@@ -27802,7 +27802,7 @@
         <v>4</v>
       </c>
       <c r="H526">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I526">
         <v>1</v>
@@ -27840,7 +27840,7 @@
         <v>4</v>
       </c>
       <c r="H527">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I527">
         <v>1</v>
@@ -27881,7 +27881,7 @@
         <v>4</v>
       </c>
       <c r="H528">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I528">
         <v>1</v>
@@ -27919,7 +27919,7 @@
         <v>21</v>
       </c>
       <c r="H529">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I529">
         <v>1</v>
@@ -27960,7 +27960,7 @@
         <v>21</v>
       </c>
       <c r="H530">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I530">
         <v>1</v>
@@ -27998,7 +27998,7 @@
         <v>21</v>
       </c>
       <c r="H531">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I531">
         <v>1</v>
@@ -28036,7 +28036,7 @@
         <v>21</v>
       </c>
       <c r="H532">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I532">
         <v>1</v>
@@ -28077,7 +28077,7 @@
         <v>21</v>
       </c>
       <c r="H533">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I533">
         <v>1</v>
@@ -28115,7 +28115,7 @@
         <v>21</v>
       </c>
       <c r="H534">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I534">
         <v>1</v>
@@ -28153,7 +28153,7 @@
         <v>21</v>
       </c>
       <c r="H535">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I535">
         <v>1</v>
@@ -28194,7 +28194,7 @@
         <v>3</v>
       </c>
       <c r="H536">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I536">
         <v>1</v>
@@ -28273,7 +28273,7 @@
         <v>6</v>
       </c>
       <c r="H538">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I538">
         <v>1</v>
@@ -28311,7 +28311,7 @@
         <v>4</v>
       </c>
       <c r="H539">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I539">
         <v>1</v>
@@ -28349,7 +28349,7 @@
         <v>21</v>
       </c>
       <c r="H540">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I540">
         <v>1</v>
@@ -28387,7 +28387,7 @@
         <v>21</v>
       </c>
       <c r="H541">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I541">
         <v>1</v>
@@ -28463,7 +28463,7 @@
         <v>4</v>
       </c>
       <c r="H543">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I543">
         <v>1</v>
@@ -28501,7 +28501,7 @@
         <v>4</v>
       </c>
       <c r="H544">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I544">
         <v>1</v>
@@ -28539,7 +28539,7 @@
         <v>21</v>
       </c>
       <c r="H545">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I545">
         <v>1</v>
@@ -28577,7 +28577,7 @@
         <v>21</v>
       </c>
       <c r="H546">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I546">
         <v>1</v>
@@ -28618,7 +28618,7 @@
         <v>21</v>
       </c>
       <c r="H547">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I547">
         <v>1</v>
@@ -28659,7 +28659,7 @@
         <v>6</v>
       </c>
       <c r="H548">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I548">
         <v>1</v>
@@ -28697,7 +28697,7 @@
         <v>10</v>
       </c>
       <c r="H549">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I549">
         <v>1</v>
@@ -28735,7 +28735,7 @@
         <v>21</v>
       </c>
       <c r="H550">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I550">
         <v>1</v>
@@ -28773,7 +28773,7 @@
         <v>10</v>
       </c>
       <c r="H551">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I551">
         <v>1</v>
@@ -28814,7 +28814,7 @@
         <v>21</v>
       </c>
       <c r="H552">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I552">
         <v>1</v>
@@ -28852,7 +28852,7 @@
         <v>4</v>
       </c>
       <c r="H553">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I553">
         <v>1</v>
@@ -29007,7 +29007,7 @@
         <v>21</v>
       </c>
       <c r="H557">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I557">
         <v>1</v>
@@ -29045,7 +29045,7 @@
         <v>21</v>
       </c>
       <c r="H558">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I558">
         <v>1</v>
@@ -29083,7 +29083,7 @@
         <v>4</v>
       </c>
       <c r="H559">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I559">
         <v>1</v>
@@ -29124,7 +29124,7 @@
         <v>21</v>
       </c>
       <c r="H560">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I560">
         <v>1</v>
@@ -29165,7 +29165,7 @@
         <v>21</v>
       </c>
       <c r="H561">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I561">
         <v>1</v>
@@ -29206,7 +29206,7 @@
         <v>8</v>
       </c>
       <c r="H562">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I562">
         <v>1</v>
@@ -29244,7 +29244,7 @@
         <v>21</v>
       </c>
       <c r="H563">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I563">
         <v>1</v>
@@ -29285,7 +29285,7 @@
         <v>21</v>
       </c>
       <c r="H564">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I564">
         <v>1</v>
@@ -29326,7 +29326,7 @@
         <v>21</v>
       </c>
       <c r="H565">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I565">
         <v>1</v>
@@ -29364,7 +29364,7 @@
         <v>2</v>
       </c>
       <c r="H566">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I566">
         <v>1</v>
@@ -29402,7 +29402,7 @@
         <v>2</v>
       </c>
       <c r="H567">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I567">
         <v>1</v>
@@ -29443,7 +29443,7 @@
         <v>21</v>
       </c>
       <c r="H568">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I568">
         <v>1</v>
@@ -29481,7 +29481,7 @@
         <v>6</v>
       </c>
       <c r="H569">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I569">
         <v>1</v>
@@ -29519,7 +29519,7 @@
         <v>21</v>
       </c>
       <c r="H570">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I570">
         <v>1</v>
@@ -29557,7 +29557,7 @@
         <v>2</v>
       </c>
       <c r="H571">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I571">
         <v>1</v>
@@ -29636,7 +29636,7 @@
         <v>21</v>
       </c>
       <c r="H573">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I573">
         <v>1</v>
@@ -29674,7 +29674,7 @@
         <v>21</v>
       </c>
       <c r="H574">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I574">
         <v>1</v>
@@ -29712,7 +29712,7 @@
         <v>10</v>
       </c>
       <c r="H575">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -29753,7 +29753,7 @@
         <v>21</v>
       </c>
       <c r="H576">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I576">
         <v>1</v>
@@ -29832,7 +29832,7 @@
         <v>21</v>
       </c>
       <c r="H578">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I578">
         <v>1</v>
@@ -29946,7 +29946,7 @@
         <v>21</v>
       </c>
       <c r="H581">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I581">
         <v>1</v>
@@ -29987,7 +29987,7 @@
         <v>10</v>
       </c>
       <c r="H582">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I582">
         <v>1</v>
@@ -30028,7 +30028,7 @@
         <v>2</v>
       </c>
       <c r="H583">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I583">
         <v>1</v>
@@ -30069,7 +30069,7 @@
         <v>2</v>
       </c>
       <c r="H584">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -30107,7 +30107,7 @@
         <v>21</v>
       </c>
       <c r="H585">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I585">
         <v>1</v>
@@ -30145,7 +30145,7 @@
         <v>21</v>
       </c>
       <c r="H586">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I586">
         <v>1</v>
@@ -30183,7 +30183,7 @@
         <v>21</v>
       </c>
       <c r="H587">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I587">
         <v>1</v>
@@ -30221,7 +30221,7 @@
         <v>21</v>
       </c>
       <c r="H588">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I588">
         <v>1</v>
@@ -30259,7 +30259,7 @@
         <v>21</v>
       </c>
       <c r="H589">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I589">
         <v>1</v>
@@ -30297,7 +30297,7 @@
         <v>21</v>
       </c>
       <c r="H590">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I590">
         <v>1</v>
@@ -30335,7 +30335,7 @@
         <v>21</v>
       </c>
       <c r="H591">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I591">
         <v>1</v>
@@ -30373,7 +30373,7 @@
         <v>21</v>
       </c>
       <c r="H592">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I592">
         <v>1</v>
@@ -30411,7 +30411,7 @@
         <v>21</v>
       </c>
       <c r="H593">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I593">
         <v>1</v>
@@ -30449,7 +30449,7 @@
         <v>21</v>
       </c>
       <c r="H594">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I594">
         <v>1</v>
@@ -30487,7 +30487,7 @@
         <v>21</v>
       </c>
       <c r="H595">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I595">
         <v>1</v>
@@ -30525,7 +30525,7 @@
         <v>21</v>
       </c>
       <c r="H596">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I596">
         <v>1</v>
@@ -30604,7 +30604,7 @@
         <v>21</v>
       </c>
       <c r="H598">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I598">
         <v>1</v>
@@ -30645,7 +30645,7 @@
         <v>10</v>
       </c>
       <c r="H599">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -30683,7 +30683,7 @@
         <v>21</v>
       </c>
       <c r="H600">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I600">
         <v>1</v>
@@ -30724,7 +30724,7 @@
         <v>6</v>
       </c>
       <c r="H601">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I601">
         <v>1</v>
@@ -30765,7 +30765,7 @@
         <v>10</v>
       </c>
       <c r="H602">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I602">
         <v>1</v>
@@ -30803,7 +30803,7 @@
         <v>21</v>
       </c>
       <c r="H603">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I603">
         <v>1</v>
@@ -30841,7 +30841,7 @@
         <v>21</v>
       </c>
       <c r="H604">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I604">
         <v>1</v>
@@ -30882,7 +30882,7 @@
         <v>21</v>
       </c>
       <c r="H605">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I605">
         <v>1</v>
@@ -30961,7 +30961,7 @@
         <v>21</v>
       </c>
       <c r="H607">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I607">
         <v>1</v>
@@ -31002,7 +31002,7 @@
         <v>6</v>
       </c>
       <c r="H608">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -31040,7 +31040,7 @@
         <v>21</v>
       </c>
       <c r="H609">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I609">
         <v>1</v>
@@ -31078,7 +31078,7 @@
         <v>8</v>
       </c>
       <c r="H610">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I610">
         <v>1</v>
@@ -31116,7 +31116,7 @@
         <v>21</v>
       </c>
       <c r="H611">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I611">
         <v>1</v>
@@ -31157,7 +31157,7 @@
         <v>21</v>
       </c>
       <c r="H612">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I612">
         <v>1</v>
@@ -31198,7 +31198,7 @@
         <v>21</v>
       </c>
       <c r="H613">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I613">
         <v>1</v>
@@ -31236,7 +31236,7 @@
         <v>21</v>
       </c>
       <c r="H614">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I614">
         <v>1</v>
@@ -31274,7 +31274,7 @@
         <v>6</v>
       </c>
       <c r="H615">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I615">
         <v>1</v>
@@ -31312,7 +31312,7 @@
         <v>21</v>
       </c>
       <c r="H616">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I616">
         <v>1</v>
@@ -31353,7 +31353,7 @@
         <v>21</v>
       </c>
       <c r="H617">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I617">
         <v>1</v>
@@ -31391,7 +31391,7 @@
         <v>21</v>
       </c>
       <c r="H618">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I618">
         <v>1</v>
@@ -31429,7 +31429,7 @@
         <v>21</v>
       </c>
       <c r="H619">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I619">
         <v>1</v>
@@ -31467,7 +31467,7 @@
         <v>21</v>
       </c>
       <c r="H620">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I620">
         <v>1</v>
@@ -31505,7 +31505,7 @@
         <v>21</v>
       </c>
       <c r="H621">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I621">
         <v>1</v>
@@ -31543,7 +31543,7 @@
         <v>21</v>
       </c>
       <c r="H622">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I622">
         <v>1</v>
@@ -31581,7 +31581,7 @@
         <v>10</v>
       </c>
       <c r="H623">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I623">
         <v>1</v>
@@ -31622,7 +31622,7 @@
         <v>21</v>
       </c>
       <c r="H624">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I624">
         <v>1</v>
@@ -31660,7 +31660,7 @@
         <v>21</v>
       </c>
       <c r="H625">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I625">
         <v>1</v>
@@ -31698,7 +31698,7 @@
         <v>21</v>
       </c>
       <c r="H626">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I626">
         <v>1</v>
@@ -31777,7 +31777,7 @@
         <v>21</v>
       </c>
       <c r="H628">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I628">
         <v>1</v>
@@ -31818,7 +31818,7 @@
         <v>21</v>
       </c>
       <c r="H629">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I629">
         <v>1</v>
@@ -31856,7 +31856,7 @@
         <v>21</v>
       </c>
       <c r="H630">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I630">
         <v>1</v>
@@ -31897,7 +31897,7 @@
         <v>21</v>
       </c>
       <c r="H631">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I631">
         <v>1</v>
@@ -31935,7 +31935,7 @@
         <v>4</v>
       </c>
       <c r="H632">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I632">
         <v>1</v>
@@ -31973,7 +31973,7 @@
         <v>21</v>
       </c>
       <c r="H633">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I633">
         <v>1</v>
@@ -32011,7 +32011,7 @@
         <v>21</v>
       </c>
       <c r="H634">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I634">
         <v>1</v>
@@ -32049,7 +32049,7 @@
         <v>21</v>
       </c>
       <c r="H635">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I635">
         <v>1</v>
@@ -32090,7 +32090,7 @@
         <v>21</v>
       </c>
       <c r="H636">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I636">
         <v>1</v>
@@ -32128,7 +32128,7 @@
         <v>21</v>
       </c>
       <c r="H637">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I637">
         <v>1</v>
@@ -32166,7 +32166,7 @@
         <v>5</v>
       </c>
       <c r="H638">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I638">
         <v>1</v>
@@ -32204,7 +32204,7 @@
         <v>10</v>
       </c>
       <c r="H639">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I639">
         <v>1</v>
@@ -32242,7 +32242,7 @@
         <v>10</v>
       </c>
       <c r="H640">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I640">
         <v>1</v>
@@ -32280,7 +32280,7 @@
         <v>21</v>
       </c>
       <c r="H641">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I641">
         <v>1</v>
@@ -32318,7 +32318,7 @@
         <v>10</v>
       </c>
       <c r="H642">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I642">
         <v>1</v>
@@ -32356,7 +32356,7 @@
         <v>21</v>
       </c>
       <c r="H643">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I643">
         <v>1</v>
@@ -32394,7 +32394,7 @@
         <v>21</v>
       </c>
       <c r="H644">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I644">
         <v>1</v>
@@ -32435,7 +32435,7 @@
         <v>21</v>
       </c>
       <c r="H645">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I645">
         <v>1</v>
@@ -32476,7 +32476,7 @@
         <v>21</v>
       </c>
       <c r="H646">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I646">
         <v>1</v>
@@ -32517,7 +32517,7 @@
         <v>21</v>
       </c>
       <c r="H647">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I647">
         <v>1</v>
@@ -32593,7 +32593,7 @@
         <v>10</v>
       </c>
       <c r="H649">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I649">
         <v>1</v>
@@ -32634,7 +32634,7 @@
         <v>4</v>
       </c>
       <c r="H650">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I650">
         <v>1</v>
@@ -32675,7 +32675,7 @@
         <v>10</v>
       </c>
       <c r="H651">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I651">
         <v>1</v>
@@ -32713,7 +32713,7 @@
         <v>21</v>
       </c>
       <c r="H652">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I652">
         <v>1</v>
@@ -32751,7 +32751,7 @@
         <v>21</v>
       </c>
       <c r="H653">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I653">
         <v>1</v>
@@ -32792,7 +32792,7 @@
         <v>21</v>
       </c>
       <c r="H654">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I654">
         <v>1</v>
@@ -32871,7 +32871,7 @@
         <v>6</v>
       </c>
       <c r="H656">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I656">
         <v>1</v>
@@ -32909,7 +32909,7 @@
         <v>6</v>
       </c>
       <c r="H657">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I657">
         <v>1</v>
@@ -32988,7 +32988,7 @@
         <v>21</v>
       </c>
       <c r="H659">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I659">
         <v>1</v>
@@ -33026,7 +33026,7 @@
         <v>8</v>
       </c>
       <c r="H660">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I660">
         <v>1</v>
@@ -33067,7 +33067,7 @@
         <v>10</v>
       </c>
       <c r="H661">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I661">
         <v>1</v>
@@ -33108,7 +33108,7 @@
         <v>10</v>
       </c>
       <c r="H662">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I662">
         <v>1</v>
@@ -33149,7 +33149,7 @@
         <v>21</v>
       </c>
       <c r="H663">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I663">
         <v>1</v>
@@ -33187,7 +33187,7 @@
         <v>21</v>
       </c>
       <c r="H664">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I664">
         <v>1</v>
@@ -33225,7 +33225,7 @@
         <v>4</v>
       </c>
       <c r="H665">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I665">
         <v>1</v>
@@ -33263,7 +33263,7 @@
         <v>21</v>
       </c>
       <c r="H666">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I666">
         <v>1</v>
@@ -33301,7 +33301,7 @@
         <v>10</v>
       </c>
       <c r="H667">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I667">
         <v>1</v>
@@ -33339,7 +33339,7 @@
         <v>21</v>
       </c>
       <c r="H668">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I668">
         <v>1</v>
@@ -33377,7 +33377,7 @@
         <v>21</v>
       </c>
       <c r="H669">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I669">
         <v>1</v>
@@ -33418,7 +33418,7 @@
         <v>8</v>
       </c>
       <c r="H670">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I670">
         <v>1</v>
@@ -33456,7 +33456,7 @@
         <v>21</v>
       </c>
       <c r="H671">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I671">
         <v>1</v>
@@ -33497,7 +33497,7 @@
         <v>10</v>
       </c>
       <c r="H672">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I672">
         <v>1</v>
@@ -33576,7 +33576,7 @@
         <v>10</v>
       </c>
       <c r="H674">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I674">
         <v>1</v>
@@ -33617,7 +33617,7 @@
         <v>21</v>
       </c>
       <c r="H675">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I675">
         <v>1</v>
@@ -33655,7 +33655,7 @@
         <v>4</v>
       </c>
       <c r="H676">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I676">
         <v>1</v>
@@ -33696,7 +33696,7 @@
         <v>10</v>
       </c>
       <c r="H677">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I677">
         <v>1</v>
@@ -33737,7 +33737,7 @@
         <v>10</v>
       </c>
       <c r="H678">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I678">
         <v>1</v>
@@ -33778,7 +33778,7 @@
         <v>21</v>
       </c>
       <c r="H679">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -33819,7 +33819,7 @@
         <v>21</v>
       </c>
       <c r="H680">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I680">
         <v>1</v>
@@ -33860,7 +33860,7 @@
         <v>4</v>
       </c>
       <c r="H681">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I681">
         <v>1</v>
@@ -33898,7 +33898,7 @@
         <v>21</v>
       </c>
       <c r="H682">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I682">
         <v>1</v>
@@ -33936,7 +33936,7 @@
         <v>21</v>
       </c>
       <c r="H683">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I683">
         <v>1</v>
@@ -33977,7 +33977,7 @@
         <v>21</v>
       </c>
       <c r="H684">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I684">
         <v>1</v>
@@ -34018,7 +34018,7 @@
         <v>2</v>
       </c>
       <c r="H685">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -34059,7 +34059,7 @@
         <v>10</v>
       </c>
       <c r="H686">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I686">
         <v>1</v>
@@ -34097,7 +34097,7 @@
         <v>21</v>
       </c>
       <c r="H687">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I687">
         <v>1</v>
@@ -34135,7 +34135,7 @@
         <v>6</v>
       </c>
       <c r="H688">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I688">
         <v>1</v>
@@ -34173,7 +34173,7 @@
         <v>21</v>
       </c>
       <c r="H689">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I689">
         <v>1</v>
@@ -34211,7 +34211,7 @@
         <v>21</v>
       </c>
       <c r="H690">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I690">
         <v>1</v>
@@ -34252,7 +34252,7 @@
         <v>21</v>
       </c>
       <c r="H691">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I691">
         <v>1</v>
@@ -34293,7 +34293,7 @@
         <v>21</v>
       </c>
       <c r="H692">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I692">
         <v>1</v>
@@ -34334,7 +34334,7 @@
         <v>21</v>
       </c>
       <c r="H693">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -34375,7 +34375,7 @@
         <v>21</v>
       </c>
       <c r="H694">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I694">
         <v>1</v>
@@ -34413,7 +34413,7 @@
         <v>6</v>
       </c>
       <c r="H695">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I695">
         <v>1</v>
@@ -34454,7 +34454,7 @@
         <v>4</v>
       </c>
       <c r="H696">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I696">
         <v>1</v>
@@ -34492,7 +34492,7 @@
         <v>21</v>
       </c>
       <c r="H697">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I697">
         <v>1</v>
@@ -34533,7 +34533,7 @@
         <v>10</v>
       </c>
       <c r="H698">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I698">
         <v>1</v>
@@ -34571,7 +34571,7 @@
         <v>21</v>
       </c>
       <c r="H699">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I699">
         <v>1</v>
@@ -34609,7 +34609,7 @@
         <v>2</v>
       </c>
       <c r="H700">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I700">
         <v>1</v>
@@ -34650,7 +34650,7 @@
         <v>6</v>
       </c>
       <c r="H701">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I701">
         <v>1</v>
@@ -34688,7 +34688,7 @@
         <v>21</v>
       </c>
       <c r="H702">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I702">
         <v>1</v>
@@ -34729,7 +34729,7 @@
         <v>21</v>
       </c>
       <c r="H703">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I703">
         <v>1</v>
@@ -34767,7 +34767,7 @@
         <v>21</v>
       </c>
       <c r="H704">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -34805,7 +34805,7 @@
         <v>21</v>
       </c>
       <c r="H705">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I705">
         <v>1</v>
@@ -34843,7 +34843,7 @@
         <v>21</v>
       </c>
       <c r="H706">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I706">
         <v>1</v>
@@ -34881,7 +34881,7 @@
         <v>21</v>
       </c>
       <c r="H707">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I707">
         <v>1</v>
@@ -34919,7 +34919,7 @@
         <v>21</v>
       </c>
       <c r="H708">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I708">
         <v>1</v>
@@ -34957,7 +34957,7 @@
         <v>21</v>
       </c>
       <c r="H709">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I709">
         <v>1</v>
@@ -34995,7 +34995,7 @@
         <v>21</v>
       </c>
       <c r="H710">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -35036,7 +35036,7 @@
         <v>6</v>
       </c>
       <c r="H711">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I711">
         <v>1</v>
@@ -35074,7 +35074,7 @@
         <v>21</v>
       </c>
       <c r="H712">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I712">
         <v>1</v>
@@ -35112,7 +35112,7 @@
         <v>21</v>
       </c>
       <c r="H713">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I713">
         <v>1</v>
@@ -35150,7 +35150,7 @@
         <v>21</v>
       </c>
       <c r="H714">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I714">
         <v>1</v>
@@ -35191,7 +35191,7 @@
         <v>21</v>
       </c>
       <c r="H715">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I715">
         <v>1</v>
@@ -35232,7 +35232,7 @@
         <v>21</v>
       </c>
       <c r="H716">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I716">
         <v>1</v>
@@ -35273,7 +35273,7 @@
         <v>10</v>
       </c>
       <c r="H717">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I717">
         <v>1</v>
@@ -35311,7 +35311,7 @@
         <v>21</v>
       </c>
       <c r="H718">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I718">
         <v>1</v>
@@ -35349,7 +35349,7 @@
         <v>21</v>
       </c>
       <c r="H719">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I719">
         <v>1</v>
@@ -35387,7 +35387,7 @@
         <v>21</v>
       </c>
       <c r="H720">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I720">
         <v>1</v>
@@ -35425,7 +35425,7 @@
         <v>6</v>
       </c>
       <c r="H721">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I721">
         <v>1</v>
@@ -35501,7 +35501,7 @@
         <v>21</v>
       </c>
       <c r="H723">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I723">
         <v>1</v>
@@ -35539,7 +35539,7 @@
         <v>21</v>
       </c>
       <c r="H724">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I724">
         <v>1</v>
@@ -35580,7 +35580,7 @@
         <v>21</v>
       </c>
       <c r="H725">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I725">
         <v>1</v>
@@ -35618,7 +35618,7 @@
         <v>21</v>
       </c>
       <c r="H726">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -35659,7 +35659,7 @@
         <v>21</v>
       </c>
       <c r="H727">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -35700,7 +35700,7 @@
         <v>21</v>
       </c>
       <c r="H728">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I728">
         <v>1</v>
@@ -35738,7 +35738,7 @@
         <v>21</v>
       </c>
       <c r="H729">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I729">
         <v>1</v>
@@ -35776,7 +35776,7 @@
         <v>21</v>
       </c>
       <c r="H730">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I730">
         <v>1</v>
@@ -35814,7 +35814,7 @@
         <v>21</v>
       </c>
       <c r="H731">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I731">
         <v>1</v>
@@ -35855,7 +35855,7 @@
         <v>21</v>
       </c>
       <c r="H732">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I732">
         <v>1</v>
@@ -35896,7 +35896,7 @@
         <v>2</v>
       </c>
       <c r="H733">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I733">
         <v>1</v>
@@ -35937,7 +35937,7 @@
         <v>21</v>
       </c>
       <c r="H734">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I734">
         <v>1</v>
@@ -35975,7 +35975,7 @@
         <v>21</v>
       </c>
       <c r="H735">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I735">
         <v>1</v>
@@ -36013,7 +36013,7 @@
         <v>21</v>
       </c>
       <c r="H736">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I736">
         <v>1</v>
@@ -36051,7 +36051,7 @@
         <v>21</v>
       </c>
       <c r="H737">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -36092,7 +36092,7 @@
         <v>21</v>
       </c>
       <c r="H738">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I738">
         <v>1</v>
@@ -36130,7 +36130,7 @@
         <v>21</v>
       </c>
       <c r="H739">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I739">
         <v>1</v>
@@ -36168,7 +36168,7 @@
         <v>10</v>
       </c>
       <c r="H740">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I740">
         <v>1</v>
@@ -36206,7 +36206,7 @@
         <v>10</v>
       </c>
       <c r="H741">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I741">
         <v>1</v>
@@ -36244,7 +36244,7 @@
         <v>21</v>
       </c>
       <c r="H742">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I742">
         <v>1</v>
@@ -36282,7 +36282,7 @@
         <v>21</v>
       </c>
       <c r="H743">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I743">
         <v>1</v>
@@ -36320,7 +36320,7 @@
         <v>21</v>
       </c>
       <c r="H744">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I744">
         <v>1</v>
@@ -36361,7 +36361,7 @@
         <v>21</v>
       </c>
       <c r="H745">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -36399,7 +36399,7 @@
         <v>21</v>
       </c>
       <c r="H746">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -36437,7 +36437,7 @@
         <v>21</v>
       </c>
       <c r="H747">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I747">
         <v>1</v>
@@ -36475,7 +36475,7 @@
         <v>21</v>
       </c>
       <c r="H748">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I748">
         <v>1</v>
@@ -36513,7 +36513,7 @@
         <v>21</v>
       </c>
       <c r="H749">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I749">
         <v>1</v>
@@ -36554,7 +36554,7 @@
         <v>21</v>
       </c>
       <c r="H750">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I750">
         <v>1</v>
@@ -36592,7 +36592,7 @@
         <v>21</v>
       </c>
       <c r="H751">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I751">
         <v>1</v>
@@ -36633,7 +36633,7 @@
         <v>21</v>
       </c>
       <c r="H752">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I752">
         <v>1</v>
@@ -36671,7 +36671,7 @@
         <v>21</v>
       </c>
       <c r="H753">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I753">
         <v>1</v>
@@ -36712,7 +36712,7 @@
         <v>21</v>
       </c>
       <c r="H754">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I754">
         <v>1</v>
@@ -36750,7 +36750,7 @@
         <v>21</v>
       </c>
       <c r="H755">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I755">
         <v>1</v>
@@ -36791,7 +36791,7 @@
         <v>21</v>
       </c>
       <c r="H756">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I756">
         <v>1</v>
@@ -36832,7 +36832,7 @@
         <v>21</v>
       </c>
       <c r="H757">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I757">
         <v>1</v>
@@ -36873,7 +36873,7 @@
         <v>21</v>
       </c>
       <c r="H758">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I758">
         <v>1</v>
@@ -36914,7 +36914,7 @@
         <v>21</v>
       </c>
       <c r="H759">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I759">
         <v>1</v>
@@ -36952,7 +36952,7 @@
         <v>21</v>
       </c>
       <c r="H760">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I760">
         <v>1</v>
@@ -36990,7 +36990,7 @@
         <v>21</v>
       </c>
       <c r="H761">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I761">
         <v>1</v>
@@ -37031,7 +37031,7 @@
         <v>21</v>
       </c>
       <c r="H762">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I762">
         <v>1</v>
@@ -37072,7 +37072,7 @@
         <v>21</v>
       </c>
       <c r="H763">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I763">
         <v>1</v>
@@ -37113,7 +37113,7 @@
         <v>21</v>
       </c>
       <c r="H764">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I764">
         <v>1</v>
@@ -37151,7 +37151,7 @@
         <v>21</v>
       </c>
       <c r="H765">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I765">
         <v>1</v>
@@ -37189,7 +37189,7 @@
         <v>21</v>
       </c>
       <c r="H766">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I766">
         <v>1</v>
@@ -37227,7 +37227,7 @@
         <v>21</v>
       </c>
       <c r="H767">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I767">
         <v>1</v>
@@ -37265,7 +37265,7 @@
         <v>21</v>
       </c>
       <c r="H768">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I768">
         <v>1</v>
@@ -37347,7 +37347,7 @@
         <v>10</v>
       </c>
       <c r="H770">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I770">
         <v>1</v>
@@ -37385,7 +37385,7 @@
         <v>21</v>
       </c>
       <c r="H771">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I771">
         <v>1</v>
@@ -37426,7 +37426,7 @@
         <v>21</v>
       </c>
       <c r="H772">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I772">
         <v>1</v>
@@ -37464,7 +37464,7 @@
         <v>21</v>
       </c>
       <c r="H773">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I773">
         <v>1</v>
@@ -37502,7 +37502,7 @@
         <v>21</v>
       </c>
       <c r="H774">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I774">
         <v>1</v>
@@ -37540,7 +37540,7 @@
         <v>21</v>
       </c>
       <c r="H775">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I775">
         <v>1</v>
@@ -37578,7 +37578,7 @@
         <v>21</v>
       </c>
       <c r="H776">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I776">
         <v>1</v>
@@ -37616,7 +37616,7 @@
         <v>21</v>
       </c>
       <c r="H777">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I777">
         <v>1</v>
@@ -37654,7 +37654,7 @@
         <v>21</v>
       </c>
       <c r="H778">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I778">
         <v>1</v>
@@ -37695,7 +37695,7 @@
         <v>21</v>
       </c>
       <c r="H779">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I779">
         <v>1</v>
@@ -37736,7 +37736,7 @@
         <v>21</v>
       </c>
       <c r="H780">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I780">
         <v>1</v>
@@ -37777,7 +37777,7 @@
         <v>21</v>
       </c>
       <c r="H781">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I781">
         <v>1</v>
@@ -37815,7 +37815,7 @@
         <v>21</v>
       </c>
       <c r="H782">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I782">
         <v>1</v>
@@ -37853,7 +37853,7 @@
         <v>21</v>
       </c>
       <c r="H783">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I783">
         <v>1</v>
@@ -37891,7 +37891,7 @@
         <v>21</v>
       </c>
       <c r="H784">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I784">
         <v>1</v>
@@ -37929,7 +37929,7 @@
         <v>21</v>
       </c>
       <c r="H785">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I785">
         <v>1</v>
@@ -37967,7 +37967,7 @@
         <v>21</v>
       </c>
       <c r="H786">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I786">
         <v>1</v>
@@ -38005,7 +38005,7 @@
         <v>21</v>
       </c>
       <c r="H787">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I787">
         <v>1</v>
@@ -38043,7 +38043,7 @@
         <v>21</v>
       </c>
       <c r="H788">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I788">
         <v>1</v>
@@ -38081,7 +38081,7 @@
         <v>21</v>
       </c>
       <c r="H789">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I789">
         <v>1</v>
@@ -38119,7 +38119,7 @@
         <v>21</v>
       </c>
       <c r="H790">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I790">
         <v>1</v>
@@ -38160,7 +38160,7 @@
         <v>21</v>
       </c>
       <c r="H791">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -38201,7 +38201,7 @@
         <v>21</v>
       </c>
       <c r="H792">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I792">
         <v>1</v>
@@ -38239,7 +38239,7 @@
         <v>21</v>
       </c>
       <c r="H793">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I793">
         <v>1</v>
@@ -38280,7 +38280,7 @@
         <v>21</v>
       </c>
       <c r="H794">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I794">
         <v>1</v>
@@ -38321,7 +38321,7 @@
         <v>21</v>
       </c>
       <c r="H795">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I795">
         <v>1</v>
@@ -38359,7 +38359,7 @@
         <v>21</v>
       </c>
       <c r="H796">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I796">
         <v>1</v>
@@ -38397,7 +38397,7 @@
         <v>21</v>
       </c>
       <c r="H797">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -38435,7 +38435,7 @@
         <v>21</v>
       </c>
       <c r="H798">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I798">
         <v>1</v>
@@ -38473,7 +38473,7 @@
         <v>21</v>
       </c>
       <c r="H799">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I799">
         <v>1</v>
@@ -38511,7 +38511,7 @@
         <v>21</v>
       </c>
       <c r="H800">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I800">
         <v>1</v>
@@ -38549,7 +38549,7 @@
         <v>21</v>
       </c>
       <c r="H801">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I801">
         <v>1</v>
@@ -38587,7 +38587,7 @@
         <v>21</v>
       </c>
       <c r="H802">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I802">
         <v>1</v>
@@ -38625,7 +38625,7 @@
         <v>21</v>
       </c>
       <c r="H803">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I803">
         <v>1</v>
@@ -38663,7 +38663,7 @@
         <v>21</v>
       </c>
       <c r="H804">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I804">
         <v>1</v>
@@ -38701,7 +38701,7 @@
         <v>21</v>
       </c>
       <c r="H805">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -38739,7 +38739,7 @@
         <v>21</v>
       </c>
       <c r="H806">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I806">
         <v>1</v>
@@ -38780,7 +38780,7 @@
         <v>21</v>
       </c>
       <c r="H807">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I807">
         <v>1</v>
@@ -38818,7 +38818,7 @@
         <v>21</v>
       </c>
       <c r="H808">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I808">
         <v>1</v>
@@ -38856,7 +38856,7 @@
         <v>21</v>
       </c>
       <c r="H809">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I809">
         <v>1</v>
@@ -38894,7 +38894,7 @@
         <v>21</v>
       </c>
       <c r="H810">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I810">
         <v>1</v>
@@ -38932,7 +38932,7 @@
         <v>21</v>
       </c>
       <c r="H811">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I811">
         <v>1</v>
@@ -38973,7 +38973,7 @@
         <v>21</v>
       </c>
       <c r="H812">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I812">
         <v>1</v>
@@ -39014,7 +39014,7 @@
         <v>21</v>
       </c>
       <c r="H813">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I813">
         <v>1</v>
@@ -39055,7 +39055,7 @@
         <v>21</v>
       </c>
       <c r="H814">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I814">
         <v>1</v>
@@ -39096,7 +39096,7 @@
         <v>21</v>
       </c>
       <c r="H815">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -39134,7 +39134,7 @@
         <v>21</v>
       </c>
       <c r="H816">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I816">
         <v>1</v>
@@ -39175,7 +39175,7 @@
         <v>21</v>
       </c>
       <c r="H817">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I817">
         <v>1</v>
@@ -39216,7 +39216,7 @@
         <v>21</v>
       </c>
       <c r="H818">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I818">
         <v>1</v>
@@ -39254,7 +39254,7 @@
         <v>21</v>
       </c>
       <c r="H819">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I819">
         <v>1</v>
@@ -39292,7 +39292,7 @@
         <v>21</v>
       </c>
       <c r="H820">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -39330,7 +39330,7 @@
         <v>21</v>
       </c>
       <c r="H821">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I821">
         <v>1</v>
@@ -39371,7 +39371,7 @@
         <v>21</v>
       </c>
       <c r="H822">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I822">
         <v>1</v>
@@ -39409,7 +39409,7 @@
         <v>21</v>
       </c>
       <c r="H823">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I823">
         <v>1</v>
@@ -39450,7 +39450,7 @@
         <v>5</v>
       </c>
       <c r="H824">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I824">
         <v>1</v>
@@ -39491,7 +39491,7 @@
         <v>5</v>
       </c>
       <c r="H825">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I825">
         <v>1</v>
@@ -39532,7 +39532,7 @@
         <v>5</v>
       </c>
       <c r="H826">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I826">
         <v>1</v>
@@ -39573,7 +39573,7 @@
         <v>5</v>
       </c>
       <c r="H827">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I827">
         <v>1</v>
@@ -39614,7 +39614,7 @@
         <v>5</v>
       </c>
       <c r="H828">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I828">
         <v>1</v>
@@ -39655,7 +39655,7 @@
         <v>5</v>
       </c>
       <c r="H829">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I829">
         <v>1</v>
@@ -39696,7 +39696,7 @@
         <v>5</v>
       </c>
       <c r="H830">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I830">
         <v>1</v>
@@ -39737,7 +39737,7 @@
         <v>5</v>
       </c>
       <c r="H831">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -39778,7 +39778,7 @@
         <v>5</v>
       </c>
       <c r="H832">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I832">
         <v>1</v>
@@ -39819,7 +39819,7 @@
         <v>6</v>
       </c>
       <c r="H833">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -39857,7 +39857,7 @@
         <v>4</v>
       </c>
       <c r="H834">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -39898,7 +39898,7 @@
         <v>9</v>
       </c>
       <c r="H835">
-        <v>324</v>
+        <v>141</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -39936,7 +39936,7 @@
         <v>10</v>
       </c>
       <c r="H836">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I836">
         <v>1</v>
@@ -39974,7 +39974,7 @@
         <v>21</v>
       </c>
       <c r="H837">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I837">
         <v>1</v>
@@ -40012,7 +40012,7 @@
         <v>21</v>
       </c>
       <c r="H838">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I838">
         <v>1</v>
@@ -40053,7 +40053,7 @@
         <v>6</v>
       </c>
       <c r="H839">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I839">
         <v>1</v>
@@ -40129,7 +40129,7 @@
         <v>6</v>
       </c>
       <c r="H841">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -40167,7 +40167,7 @@
         <v>8</v>
       </c>
       <c r="H842">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -40205,7 +40205,7 @@
         <v>10</v>
       </c>
       <c r="H843">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I843">
         <v>1</v>
@@ -40246,7 +40246,7 @@
         <v>6</v>
       </c>
       <c r="H844">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I844">
         <v>1</v>
@@ -40287,7 +40287,7 @@
         <v>21</v>
       </c>
       <c r="H845">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I845">
         <v>1</v>
@@ -40328,7 +40328,7 @@
         <v>21</v>
       </c>
       <c r="H846">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I846">
         <v>1</v>
@@ -40369,7 +40369,7 @@
         <v>21</v>
       </c>
       <c r="H847">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I847">
         <v>1</v>
@@ -40410,7 +40410,7 @@
         <v>21</v>
       </c>
       <c r="H848">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I848">
         <v>1</v>
@@ -40451,7 +40451,7 @@
         <v>21</v>
       </c>
       <c r="H849">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I849">
         <v>1</v>
@@ -40489,7 +40489,7 @@
         <v>21</v>
       </c>
       <c r="H850">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I850">
         <v>1</v>
@@ -40527,7 +40527,7 @@
         <v>21</v>
       </c>
       <c r="H851">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -40565,7 +40565,7 @@
         <v>4</v>
       </c>
       <c r="H852">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I852">
         <v>1</v>
@@ -40603,7 +40603,7 @@
         <v>21</v>
       </c>
       <c r="H853">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I853">
         <v>1</v>
@@ -40644,7 +40644,7 @@
         <v>21</v>
       </c>
       <c r="H854">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I854">
         <v>1</v>
@@ -40685,7 +40685,7 @@
         <v>21</v>
       </c>
       <c r="H855">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I855">
         <v>1</v>
@@ -40723,7 +40723,7 @@
         <v>21</v>
       </c>
       <c r="H856">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I856">
         <v>1</v>
@@ -40764,7 +40764,7 @@
         <v>21</v>
       </c>
       <c r="H857">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I857">
         <v>1</v>
@@ -40802,7 +40802,7 @@
         <v>21</v>
       </c>
       <c r="H858">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I858">
         <v>1</v>
@@ -40843,7 +40843,7 @@
         <v>21</v>
       </c>
       <c r="H859">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -40881,7 +40881,7 @@
         <v>21</v>
       </c>
       <c r="H860">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -40922,7 +40922,7 @@
         <v>21</v>
       </c>
       <c r="H861">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I861">
         <v>1</v>
@@ -40963,7 +40963,7 @@
         <v>21</v>
       </c>
       <c r="H862">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -41004,7 +41004,7 @@
         <v>21</v>
       </c>
       <c r="H863">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -41045,7 +41045,7 @@
         <v>21</v>
       </c>
       <c r="H864">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I864">
         <v>1</v>
@@ -41083,7 +41083,7 @@
         <v>21</v>
       </c>
       <c r="H865">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I865">
         <v>1</v>
@@ -41124,7 +41124,7 @@
         <v>21</v>
       </c>
       <c r="H866">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I866">
         <v>1</v>
@@ -41165,7 +41165,7 @@
         <v>21</v>
       </c>
       <c r="H867">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I867">
         <v>1</v>
@@ -41206,7 +41206,7 @@
         <v>21</v>
       </c>
       <c r="H868">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I868">
         <v>1</v>
@@ -41288,7 +41288,7 @@
         <v>21</v>
       </c>
       <c r="H870">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I870">
         <v>1</v>
@@ -41326,7 +41326,7 @@
         <v>21</v>
       </c>
       <c r="H871">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I871">
         <v>1</v>
@@ -41364,7 +41364,7 @@
         <v>21</v>
       </c>
       <c r="H872">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I872">
         <v>1</v>
@@ -41405,7 +41405,7 @@
         <v>21</v>
       </c>
       <c r="H873">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I873">
         <v>1</v>
@@ -41446,7 +41446,7 @@
         <v>21</v>
       </c>
       <c r="H874">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I874">
         <v>1</v>
@@ -41487,7 +41487,7 @@
         <v>4</v>
       </c>
       <c r="H875">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I875">
         <v>1</v>
@@ -41525,7 +41525,7 @@
         <v>21</v>
       </c>
       <c r="H876">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I876">
         <v>1</v>
@@ -41563,7 +41563,7 @@
         <v>21</v>
       </c>
       <c r="H877">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I877">
         <v>1</v>
@@ -41601,7 +41601,7 @@
         <v>21</v>
       </c>
       <c r="H878">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I878">
         <v>1</v>
@@ -41639,7 +41639,7 @@
         <v>4</v>
       </c>
       <c r="H879">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I879">
         <v>1</v>
@@ -41677,7 +41677,7 @@
         <v>4</v>
       </c>
       <c r="H880">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I880">
         <v>1</v>
@@ -41715,7 +41715,7 @@
         <v>4</v>
       </c>
       <c r="H881">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I881">
         <v>1</v>
@@ -41756,7 +41756,7 @@
         <v>21</v>
       </c>
       <c r="H882">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I882">
         <v>1</v>
@@ -41797,7 +41797,7 @@
         <v>8</v>
       </c>
       <c r="H883">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I883">
         <v>1</v>
@@ -41835,7 +41835,7 @@
         <v>21</v>
       </c>
       <c r="H884">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I884">
         <v>1</v>
@@ -41876,7 +41876,7 @@
         <v>21</v>
       </c>
       <c r="H885">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I885">
         <v>1</v>
@@ -41914,7 +41914,7 @@
         <v>21</v>
       </c>
       <c r="H886">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I886">
         <v>1</v>
@@ -41952,7 +41952,7 @@
         <v>21</v>
       </c>
       <c r="H887">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I887">
         <v>1</v>
@@ -41990,7 +41990,7 @@
         <v>21</v>
       </c>
       <c r="H888">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I888">
         <v>1</v>
@@ -42031,7 +42031,7 @@
         <v>21</v>
       </c>
       <c r="H889">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -42072,7 +42072,7 @@
         <v>5</v>
       </c>
       <c r="H890">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -42148,7 +42148,7 @@
         <v>21</v>
       </c>
       <c r="H892">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I892">
         <v>1</v>
@@ -42186,7 +42186,7 @@
         <v>21</v>
       </c>
       <c r="H893">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I893">
         <v>1</v>
@@ -42227,7 +42227,7 @@
         <v>21</v>
       </c>
       <c r="H894">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I894">
         <v>1</v>
@@ -42265,7 +42265,7 @@
         <v>21</v>
       </c>
       <c r="H895">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -42303,7 +42303,7 @@
         <v>21</v>
       </c>
       <c r="H896">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -42341,7 +42341,7 @@
         <v>21</v>
       </c>
       <c r="H897">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I897">
         <v>1</v>
@@ -42379,7 +42379,7 @@
         <v>21</v>
       </c>
       <c r="H898">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I898">
         <v>1</v>
@@ -42417,7 +42417,7 @@
         <v>21</v>
       </c>
       <c r="H899">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I899">
         <v>1</v>
@@ -42455,7 +42455,7 @@
         <v>21</v>
       </c>
       <c r="H900">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I900">
         <v>1</v>
@@ -42493,7 +42493,7 @@
         <v>21</v>
       </c>
       <c r="H901">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I901">
         <v>1</v>
@@ -42531,7 +42531,7 @@
         <v>21</v>
       </c>
       <c r="H902">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I902">
         <v>1</v>
@@ -42569,7 +42569,7 @@
         <v>21</v>
       </c>
       <c r="H903">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I903">
         <v>1</v>
@@ -42610,7 +42610,7 @@
         <v>21</v>
       </c>
       <c r="H904">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I904">
         <v>1</v>
@@ -42651,7 +42651,7 @@
         <v>21</v>
       </c>
       <c r="H905">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I905">
         <v>1</v>
@@ -42692,7 +42692,7 @@
         <v>4</v>
       </c>
       <c r="H906">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -42771,7 +42771,7 @@
         <v>10</v>
       </c>
       <c r="H908">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I908">
         <v>1</v>
@@ -42809,7 +42809,7 @@
         <v>21</v>
       </c>
       <c r="H909">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -42850,7 +42850,7 @@
         <v>4</v>
       </c>
       <c r="H910">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I910">
         <v>1</v>
@@ -42888,7 +42888,7 @@
         <v>10</v>
       </c>
       <c r="H911">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I911">
         <v>1</v>
@@ -42926,7 +42926,7 @@
         <v>21</v>
       </c>
       <c r="H912">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I912">
         <v>1</v>
@@ -42964,7 +42964,7 @@
         <v>21</v>
       </c>
       <c r="H913">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -43005,7 +43005,7 @@
         <v>21</v>
       </c>
       <c r="H914">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -43043,7 +43043,7 @@
         <v>10</v>
       </c>
       <c r="H915">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I915">
         <v>1</v>
@@ -43081,7 +43081,7 @@
         <v>2</v>
       </c>
       <c r="H916">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I916">
         <v>1</v>
@@ -43119,7 +43119,7 @@
         <v>2</v>
       </c>
       <c r="H917">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I917">
         <v>1</v>
@@ -43160,7 +43160,7 @@
         <v>21</v>
       </c>
       <c r="H918">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I918">
         <v>1</v>
@@ -43201,7 +43201,7 @@
         <v>21</v>
       </c>
       <c r="H919">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I919">
         <v>1</v>
@@ -43283,7 +43283,7 @@
         <v>10</v>
       </c>
       <c r="H921">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I921">
         <v>1</v>
@@ -43321,7 +43321,7 @@
         <v>21</v>
       </c>
       <c r="H922">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I922">
         <v>1</v>
@@ -43359,7 +43359,7 @@
         <v>21</v>
       </c>
       <c r="H923">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I923">
         <v>1</v>
@@ -43397,7 +43397,7 @@
         <v>21</v>
       </c>
       <c r="H924">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I924">
         <v>1</v>
@@ -43479,7 +43479,7 @@
         <v>21</v>
       </c>
       <c r="H926">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I926">
         <v>1</v>
@@ -43520,7 +43520,7 @@
         <v>21</v>
       </c>
       <c r="H927">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I927">
         <v>1</v>
@@ -43558,7 +43558,7 @@
         <v>21</v>
       </c>
       <c r="H928">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I928">
         <v>1</v>
@@ -43596,7 +43596,7 @@
         <v>21</v>
       </c>
       <c r="H929">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I929">
         <v>1</v>
@@ -43634,7 +43634,7 @@
         <v>21</v>
       </c>
       <c r="H930">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I930">
         <v>1</v>
@@ -43675,7 +43675,7 @@
         <v>21</v>
       </c>
       <c r="H931">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I931">
         <v>1</v>
@@ -43751,7 +43751,7 @@
         <v>4</v>
       </c>
       <c r="H933">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I933">
         <v>1</v>
@@ -43792,7 +43792,7 @@
         <v>21</v>
       </c>
       <c r="H934">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I934">
         <v>1</v>
@@ -43833,7 +43833,7 @@
         <v>21</v>
       </c>
       <c r="H935">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I935">
         <v>1</v>
@@ -43871,7 +43871,7 @@
         <v>21</v>
       </c>
       <c r="H936">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I936">
         <v>1</v>
@@ -43912,7 +43912,7 @@
         <v>21</v>
       </c>
       <c r="H937">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I937">
         <v>1</v>
@@ -43953,7 +43953,7 @@
         <v>21</v>
       </c>
       <c r="H938">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I938">
         <v>1</v>
@@ -43991,7 +43991,7 @@
         <v>21</v>
       </c>
       <c r="H939">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I939">
         <v>1</v>
@@ -44029,7 +44029,7 @@
         <v>21</v>
       </c>
       <c r="H940">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I940">
         <v>1</v>
@@ -44067,7 +44067,7 @@
         <v>21</v>
       </c>
       <c r="H941">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I941">
         <v>1</v>
@@ -44108,7 +44108,7 @@
         <v>21</v>
       </c>
       <c r="H942">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I942">
         <v>1</v>
@@ -44149,7 +44149,7 @@
         <v>21</v>
       </c>
       <c r="H943">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I943">
         <v>1</v>
@@ -44190,7 +44190,7 @@
         <v>21</v>
       </c>
       <c r="H944">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I944">
         <v>1</v>
@@ -44231,7 +44231,7 @@
         <v>21</v>
       </c>
       <c r="H945">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I945">
         <v>1</v>
@@ -44272,7 +44272,7 @@
         <v>3</v>
       </c>
       <c r="H946">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I946">
         <v>1</v>
@@ -44313,7 +44313,7 @@
         <v>4</v>
       </c>
       <c r="H947">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I947">
         <v>1</v>
@@ -44354,7 +44354,7 @@
         <v>4</v>
       </c>
       <c r="H948">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I948">
         <v>1</v>
@@ -44395,7 +44395,7 @@
         <v>4</v>
       </c>
       <c r="H949">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I949">
         <v>1</v>
@@ -44436,7 +44436,7 @@
         <v>10</v>
       </c>
       <c r="H950">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I950">
         <v>1</v>
@@ -44477,7 +44477,7 @@
         <v>10</v>
       </c>
       <c r="H951">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I951">
         <v>1</v>
@@ -44515,7 +44515,7 @@
         <v>21</v>
       </c>
       <c r="H952">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I952">
         <v>1</v>
@@ -44553,7 +44553,7 @@
         <v>21</v>
       </c>
       <c r="H953">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I953">
         <v>1</v>
@@ -44591,7 +44591,7 @@
         <v>21</v>
       </c>
       <c r="H954">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I954">
         <v>1</v>
@@ -44632,7 +44632,7 @@
         <v>4</v>
       </c>
       <c r="H955">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I955">
         <v>1</v>
@@ -44673,7 +44673,7 @@
         <v>2</v>
       </c>
       <c r="H956">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I956">
         <v>1</v>
@@ -44714,7 +44714,7 @@
         <v>21</v>
       </c>
       <c r="H957">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I957">
         <v>1</v>
@@ -44755,7 +44755,7 @@
         <v>2</v>
       </c>
       <c r="H958">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I958">
         <v>1</v>
@@ -44796,7 +44796,7 @@
         <v>2</v>
       </c>
       <c r="H959">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I959">
         <v>1</v>
@@ -44837,7 +44837,7 @@
         <v>2</v>
       </c>
       <c r="H960">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I960">
         <v>1</v>
@@ -44878,7 +44878,7 @@
         <v>4</v>
       </c>
       <c r="H961">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I961">
         <v>1</v>
@@ -44919,7 +44919,7 @@
         <v>21</v>
       </c>
       <c r="H962">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I962">
         <v>1</v>
@@ -44960,7 +44960,7 @@
         <v>21</v>
       </c>
       <c r="H963">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I963">
         <v>1</v>
@@ -44998,7 +44998,7 @@
         <v>21</v>
       </c>
       <c r="H964">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I964">
         <v>1</v>
@@ -45036,7 +45036,7 @@
         <v>4</v>
       </c>
       <c r="H965">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I965">
         <v>1</v>
@@ -45074,7 +45074,7 @@
         <v>10</v>
       </c>
       <c r="H966">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I966">
         <v>1</v>
@@ -45112,7 +45112,7 @@
         <v>2</v>
       </c>
       <c r="H967">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I967">
         <v>1</v>
@@ -45153,7 +45153,7 @@
         <v>2</v>
       </c>
       <c r="H968">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I968">
         <v>1</v>
@@ -45276,7 +45276,7 @@
         <v>4</v>
       </c>
       <c r="H971">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I971">
         <v>1</v>
@@ -45314,7 +45314,7 @@
         <v>10</v>
       </c>
       <c r="H972">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I972">
         <v>1</v>
@@ -45352,7 +45352,7 @@
         <v>21</v>
       </c>
       <c r="H973">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I973">
         <v>1</v>
@@ -45393,7 +45393,7 @@
         <v>10</v>
       </c>
       <c r="H974">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I974">
         <v>1</v>
@@ -45431,7 +45431,7 @@
         <v>21</v>
       </c>
       <c r="H975">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I975">
         <v>1</v>
@@ -45510,7 +45510,7 @@
         <v>21</v>
       </c>
       <c r="H977">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I977">
         <v>1</v>
@@ -45548,7 +45548,7 @@
         <v>21</v>
       </c>
       <c r="H978">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I978">
         <v>1</v>
@@ -45589,7 +45589,7 @@
         <v>21</v>
       </c>
       <c r="H979">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I979">
         <v>1</v>
@@ -45627,7 +45627,7 @@
         <v>21</v>
       </c>
       <c r="H980">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I980">
         <v>1</v>
@@ -45665,7 +45665,7 @@
         <v>21</v>
       </c>
       <c r="H981">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I981">
         <v>1</v>
@@ -45706,7 +45706,7 @@
         <v>21</v>
       </c>
       <c r="H982">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I982">
         <v>1</v>
@@ -45747,7 +45747,7 @@
         <v>21</v>
       </c>
       <c r="H983">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I983">
         <v>1</v>
@@ -45788,7 +45788,7 @@
         <v>21</v>
       </c>
       <c r="H984">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I984">
         <v>1</v>
@@ -45826,7 +45826,7 @@
         <v>21</v>
       </c>
       <c r="H985">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I985">
         <v>1</v>
@@ -45867,7 +45867,7 @@
         <v>21</v>
       </c>
       <c r="H986">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I986">
         <v>1</v>
@@ -45946,7 +45946,7 @@
         <v>21</v>
       </c>
       <c r="H988">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I988">
         <v>1</v>
@@ -45984,7 +45984,7 @@
         <v>21</v>
       </c>
       <c r="H989">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I989">
         <v>1</v>
@@ -46022,7 +46022,7 @@
         <v>21</v>
       </c>
       <c r="H990">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I990">
         <v>1</v>
@@ -46060,7 +46060,7 @@
         <v>21</v>
       </c>
       <c r="H991">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I991">
         <v>1</v>
@@ -46101,7 +46101,7 @@
         <v>21</v>
       </c>
       <c r="H992">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I992">
         <v>1</v>
@@ -46139,7 +46139,7 @@
         <v>21</v>
       </c>
       <c r="H993">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I993">
         <v>1</v>
@@ -46177,7 +46177,7 @@
         <v>10</v>
       </c>
       <c r="H994">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I994">
         <v>1</v>
@@ -46215,7 +46215,7 @@
         <v>21</v>
       </c>
       <c r="H995">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I995">
         <v>1</v>
@@ -46417,7 +46417,7 @@
         <v>21</v>
       </c>
       <c r="H1000">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1000">
         <v>1</v>
@@ -46455,7 +46455,7 @@
         <v>21</v>
       </c>
       <c r="H1001">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1001">
         <v>1</v>
@@ -46493,7 +46493,7 @@
         <v>21</v>
       </c>
       <c r="H1002">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1002">
         <v>1</v>
@@ -46534,7 +46534,7 @@
         <v>2</v>
       </c>
       <c r="H1003">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1003">
         <v>1</v>
@@ -46575,7 +46575,7 @@
         <v>2</v>
       </c>
       <c r="H1004">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1004">
         <v>1</v>
@@ -46616,7 +46616,7 @@
         <v>2</v>
       </c>
       <c r="H1005">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1005">
         <v>1</v>
@@ -46657,7 +46657,7 @@
         <v>2</v>
       </c>
       <c r="H1006">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1006">
         <v>1</v>
@@ -46695,7 +46695,7 @@
         <v>21</v>
       </c>
       <c r="H1007">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1007">
         <v>1</v>
@@ -46733,7 +46733,7 @@
         <v>21</v>
       </c>
       <c r="H1008">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1008">
         <v>1</v>
@@ -46771,7 +46771,7 @@
         <v>21</v>
       </c>
       <c r="H1009">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1009">
         <v>1</v>
@@ -46809,7 +46809,7 @@
         <v>21</v>
       </c>
       <c r="H1010">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1010">
         <v>1</v>
@@ -46847,7 +46847,7 @@
         <v>21</v>
       </c>
       <c r="H1011">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1011">
         <v>1</v>
@@ -46885,7 +46885,7 @@
         <v>21</v>
       </c>
       <c r="H1012">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1012">
         <v>1</v>
@@ -46923,7 +46923,7 @@
         <v>21</v>
       </c>
       <c r="H1013">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1013">
         <v>1</v>
@@ -46961,7 +46961,7 @@
         <v>21</v>
       </c>
       <c r="H1014">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1014">
         <v>1</v>
@@ -46999,7 +46999,7 @@
         <v>21</v>
       </c>
       <c r="H1015">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1015">
         <v>1</v>
@@ -47037,7 +47037,7 @@
         <v>21</v>
       </c>
       <c r="H1016">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1016">
         <v>1</v>
@@ -47075,7 +47075,7 @@
         <v>21</v>
       </c>
       <c r="H1017">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1017">
         <v>1</v>
@@ -47116,7 +47116,7 @@
         <v>21</v>
       </c>
       <c r="H1018">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1018">
         <v>1</v>
@@ -47154,7 +47154,7 @@
         <v>4</v>
       </c>
       <c r="H1019">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1019">
         <v>1</v>
@@ -47192,7 +47192,7 @@
         <v>21</v>
       </c>
       <c r="H1020">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1020">
         <v>1</v>
@@ -47230,7 +47230,7 @@
         <v>8</v>
       </c>
       <c r="H1021">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1021">
         <v>1</v>
@@ -47271,7 +47271,7 @@
         <v>10</v>
       </c>
       <c r="H1022">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1022">
         <v>1</v>
@@ -47312,7 +47312,7 @@
         <v>10</v>
       </c>
       <c r="H1023">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1023">
         <v>1</v>
@@ -47388,7 +47388,7 @@
         <v>4</v>
       </c>
       <c r="H1025">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1025">
         <v>1</v>
@@ -47426,7 +47426,7 @@
         <v>10</v>
       </c>
       <c r="H1026">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1026">
         <v>1</v>
@@ -47464,7 +47464,7 @@
         <v>10</v>
       </c>
       <c r="H1027">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1027">
         <v>1</v>
@@ -47502,7 +47502,7 @@
         <v>6</v>
       </c>
       <c r="H1028">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I1028">
         <v>1</v>
@@ -47543,7 +47543,7 @@
         <v>21</v>
       </c>
       <c r="H1029">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1029">
         <v>1</v>
@@ -47584,7 +47584,7 @@
         <v>21</v>
       </c>
       <c r="H1030">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1030">
         <v>1</v>
@@ -47625,7 +47625,7 @@
         <v>6</v>
       </c>
       <c r="H1031">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I1031">
         <v>1</v>
@@ -47666,7 +47666,7 @@
         <v>10</v>
       </c>
       <c r="H1032">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1032">
         <v>1</v>
@@ -47707,7 +47707,7 @@
         <v>10</v>
       </c>
       <c r="H1033">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1033">
         <v>1</v>
@@ -47748,7 +47748,7 @@
         <v>8</v>
       </c>
       <c r="H1034">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1034">
         <v>1</v>
@@ -47789,7 +47789,7 @@
         <v>8</v>
       </c>
       <c r="H1035">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1035">
         <v>1</v>
@@ -47827,7 +47827,7 @@
         <v>21</v>
       </c>
       <c r="H1036">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1036">
         <v>1</v>
@@ -47865,7 +47865,7 @@
         <v>21</v>
       </c>
       <c r="H1037">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1037">
         <v>1</v>
@@ -47906,7 +47906,7 @@
         <v>10</v>
       </c>
       <c r="H1038">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1038">
         <v>1</v>
@@ -47944,7 +47944,7 @@
         <v>21</v>
       </c>
       <c r="H1039">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1039">
         <v>1</v>
@@ -47985,7 +47985,7 @@
         <v>2</v>
       </c>
       <c r="H1040">
-        <v>324</v>
+        <v>37</v>
       </c>
       <c r="I1040">
         <v>1</v>
@@ -48026,7 +48026,7 @@
         <v>10</v>
       </c>
       <c r="H1041">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1041">
         <v>1</v>
@@ -48064,7 +48064,7 @@
         <v>4</v>
       </c>
       <c r="H1042">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1042">
         <v>1</v>
@@ -48102,7 +48102,7 @@
         <v>21</v>
       </c>
       <c r="H1043">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1043">
         <v>1</v>
@@ -48140,7 +48140,7 @@
         <v>21</v>
       </c>
       <c r="H1044">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1044">
         <v>1</v>
@@ -48178,7 +48178,7 @@
         <v>21</v>
       </c>
       <c r="H1045">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1045">
         <v>1</v>
@@ -48216,7 +48216,7 @@
         <v>3</v>
       </c>
       <c r="H1046">
-        <v>324</v>
+        <v>210</v>
       </c>
       <c r="I1046">
         <v>1</v>
@@ -48254,7 +48254,7 @@
         <v>21</v>
       </c>
       <c r="H1047">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1047">
         <v>1</v>
@@ -48292,7 +48292,7 @@
         <v>10</v>
       </c>
       <c r="H1048">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1048">
         <v>1</v>
@@ -48330,7 +48330,7 @@
         <v>10</v>
       </c>
       <c r="H1049">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1049">
         <v>1</v>
@@ -48371,7 +48371,7 @@
         <v>10</v>
       </c>
       <c r="H1050">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1050">
         <v>1</v>
@@ -48412,7 +48412,7 @@
         <v>10</v>
       </c>
       <c r="H1051">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1051">
         <v>1</v>
@@ -48450,7 +48450,7 @@
         <v>8</v>
       </c>
       <c r="H1052">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1052">
         <v>1</v>
@@ -48491,7 +48491,7 @@
         <v>4</v>
       </c>
       <c r="H1053">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1053">
         <v>1</v>
@@ -48529,7 +48529,7 @@
         <v>8</v>
       </c>
       <c r="H1054">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1054">
         <v>1</v>
@@ -48570,7 +48570,7 @@
         <v>8</v>
       </c>
       <c r="H1055">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="I1055">
         <v>1</v>
@@ -48611,7 +48611,7 @@
         <v>21</v>
       </c>
       <c r="H1056">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1056">
         <v>1</v>
@@ -48649,7 +48649,7 @@
         <v>21</v>
       </c>
       <c r="H1057">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1057">
         <v>1</v>
@@ -48687,7 +48687,7 @@
         <v>21</v>
       </c>
       <c r="H1058">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1058">
         <v>1</v>
@@ -48725,7 +48725,7 @@
         <v>21</v>
       </c>
       <c r="H1059">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1059">
         <v>1</v>
@@ -48766,7 +48766,7 @@
         <v>4</v>
       </c>
       <c r="H1060">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="I1060">
         <v>1</v>
@@ -48804,7 +48804,7 @@
         <v>6</v>
       </c>
       <c r="H1061">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I1061">
         <v>1</v>
@@ -48845,7 +48845,7 @@
         <v>6</v>
       </c>
       <c r="H1062">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="I1062">
         <v>1</v>
@@ -48886,7 +48886,7 @@
         <v>21</v>
       </c>
       <c r="H1063">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1063">
         <v>1</v>
@@ -48924,7 +48924,7 @@
         <v>10</v>
       </c>
       <c r="H1064">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1064">
         <v>1</v>
@@ -48962,7 +48962,7 @@
         <v>21</v>
       </c>
       <c r="H1065">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1065">
         <v>1</v>
@@ -49003,7 +49003,7 @@
         <v>21</v>
       </c>
       <c r="H1066">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1066">
         <v>1</v>
@@ -49082,7 +49082,7 @@
         <v>21</v>
       </c>
       <c r="H1068">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1068">
         <v>1</v>
@@ -49123,7 +49123,7 @@
         <v>10</v>
       </c>
       <c r="H1069">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1069">
         <v>1</v>
@@ -49164,7 +49164,7 @@
         <v>21</v>
       </c>
       <c r="H1070">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1070">
         <v>1</v>
@@ -49205,7 +49205,7 @@
         <v>21</v>
       </c>
       <c r="H1071">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1071">
         <v>1</v>
@@ -49246,7 +49246,7 @@
         <v>10</v>
       </c>
       <c r="H1072">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1072">
         <v>1</v>
@@ -49287,7 +49287,7 @@
         <v>10</v>
       </c>
       <c r="H1073">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1073">
         <v>1</v>
@@ -49325,7 +49325,7 @@
         <v>10</v>
       </c>
       <c r="H1074">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="I1074">
         <v>1</v>
